--- a/Tabela/data.xlsx
+++ b/Tabela/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="682">
   <si>
     <t>fam</t>
   </si>
@@ -75,9 +75,6 @@
     <t>podiceps cristatus</t>
   </si>
   <si>
-    <t>čopasti ponirek</t>
-  </si>
-  <si>
     <t>4.jpg</t>
   </si>
   <si>
@@ -108,15 +105,9 @@
     <t>ardea cinerea</t>
   </si>
   <si>
-    <t>siva čaplja</t>
-  </si>
-  <si>
     <t>7.jpg</t>
   </si>
   <si>
-    <t>mala bela čaplja</t>
-  </si>
-  <si>
     <t>8.jpg</t>
   </si>
   <si>
@@ -126,9 +117,6 @@
     <t>egretta alba</t>
   </si>
   <si>
-    <t>velika bela čaplja</t>
-  </si>
-  <si>
     <t>9.jpg</t>
   </si>
   <si>
@@ -138,18 +126,12 @@
     <t>ciconia ciconia</t>
   </si>
   <si>
-    <t>bela štorklja</t>
-  </si>
-  <si>
     <t>10.jpg</t>
   </si>
   <si>
     <t>ciconia nigra</t>
   </si>
   <si>
-    <t>črna štorklja</t>
-  </si>
-  <si>
     <t>11.jpg</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>aythya fuligula</t>
   </si>
   <si>
-    <t>čopasta črnica</t>
-  </si>
-  <si>
     <t>14.jpg</t>
   </si>
   <si>
@@ -195,9 +174,6 @@
     <t>mergus merganser</t>
   </si>
   <si>
-    <t>veliki žagar</t>
-  </si>
-  <si>
     <t>16.jpg</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>tetrao tetrix</t>
   </si>
   <si>
-    <t>ruševec</t>
-  </si>
-  <si>
     <t>30.jpg</t>
   </si>
   <si>
@@ -384,9 +357,6 @@
     <t>charadrius dubius</t>
   </si>
   <si>
-    <t>mali deževnik</t>
-  </si>
-  <si>
     <t>35.jpg</t>
   </si>
   <si>
@@ -414,9 +384,6 @@
     <t>numenius arquata</t>
   </si>
   <si>
-    <t>veliki škurh</t>
-  </si>
-  <si>
     <t>38.jpg</t>
   </si>
   <si>
@@ -444,9 +411,6 @@
     <t>larus ridibundus</t>
   </si>
   <si>
-    <t>rečni galeb</t>
-  </si>
-  <si>
     <t>41.jpg</t>
   </si>
   <si>
@@ -456,9 +420,6 @@
     <t>sterna hirundo</t>
   </si>
   <si>
-    <t>navadna čigra</t>
-  </si>
-  <si>
     <t>42.jpg</t>
   </si>
   <si>
@@ -498,9 +459,6 @@
     <t>streptopelia decaocto</t>
   </si>
   <si>
-    <t>turška grlica</t>
-  </si>
-  <si>
     <t>46.jpg</t>
   </si>
   <si>
@@ -537,9 +495,6 @@
     <t>athene noctua</t>
   </si>
   <si>
-    <t>čuk</t>
-  </si>
-  <si>
     <t>50.jpg</t>
   </si>
   <si>
@@ -606,27 +561,18 @@
     <t>picus viridis</t>
   </si>
   <si>
-    <t>zelena žolna</t>
-  </si>
-  <si>
     <t>56.jpg</t>
   </si>
   <si>
     <t>picus canus</t>
   </si>
   <si>
-    <t>siva žolna</t>
-  </si>
-  <si>
     <t>57.jpg</t>
   </si>
   <si>
     <t>dryocopus martius</t>
   </si>
   <si>
-    <t>črna žolna</t>
-  </si>
-  <si>
     <t>58.jpg</t>
   </si>
   <si>
@@ -636,9 +582,6 @@
     <t>alauda arvensis</t>
   </si>
   <si>
-    <t>poljski škrjanec</t>
-  </si>
-  <si>
     <t>59.jpg</t>
   </si>
   <si>
@@ -648,9 +591,6 @@
     <t>hirundo rustica</t>
   </si>
   <si>
-    <t>kmečka lastovka</t>
-  </si>
-  <si>
     <t>60.jpg</t>
   </si>
   <si>
@@ -699,9 +639,6 @@
     <t>troglodytes troglodytes</t>
   </si>
   <si>
-    <t>stržek</t>
-  </si>
-  <si>
     <t>65.jpg</t>
   </si>
   <si>
@@ -735,18 +672,12 @@
     <t>carar</t>
   </si>
   <si>
-    <t>taščica</t>
-  </si>
-  <si>
     <t>69.jpg</t>
   </si>
   <si>
     <t>phoenicurus ochruros</t>
   </si>
   <si>
-    <t>šmarnica</t>
-  </si>
-  <si>
     <t>70.jpg</t>
   </si>
   <si>
@@ -768,18 +699,12 @@
     <t>erithacus rubecula</t>
   </si>
   <si>
-    <t>repaljščica</t>
-  </si>
-  <si>
     <t>sylvidae</t>
   </si>
   <si>
     <t>sylvia atricapilla</t>
   </si>
   <si>
-    <t>črnoglavke</t>
-  </si>
-  <si>
     <t>73.jpg</t>
   </si>
   <si>
@@ -795,27 +720,18 @@
     <t>phylloscopus collybita</t>
   </si>
   <si>
-    <t>kovaček</t>
-  </si>
-  <si>
     <t>75.jpg</t>
   </si>
   <si>
     <t>acrocephalus palustris</t>
   </si>
   <si>
-    <t>močvirska trstnica</t>
-  </si>
-  <si>
     <t>76.jpg</t>
   </si>
   <si>
     <t>regulus regulus</t>
   </si>
   <si>
-    <t>rumenoglavi kraliček</t>
-  </si>
-  <si>
     <t>77.jpg</t>
   </si>
   <si>
@@ -846,27 +762,18 @@
     <t>cyanistes caeruleus</t>
   </si>
   <si>
-    <t>plavček</t>
-  </si>
-  <si>
     <t>80.jpg</t>
   </si>
   <si>
     <t>parus ater</t>
   </si>
   <si>
-    <t>menišček</t>
-  </si>
-  <si>
     <t>81.jpg</t>
   </si>
   <si>
     <t>lophophanes cristatus</t>
   </si>
   <si>
-    <t>čopatasta sinica</t>
-  </si>
-  <si>
     <t>82.jpg</t>
   </si>
   <si>
@@ -900,9 +807,6 @@
     <t>certhia brachydactyla</t>
   </si>
   <si>
-    <t>kratkoprsti plezalček</t>
-  </si>
-  <si>
     <t>85.jpg</t>
   </si>
   <si>
@@ -972,9 +876,6 @@
     <t>garrulus glandarius</t>
   </si>
   <si>
-    <t>šoja</t>
-  </si>
-  <si>
     <t>92.jpg</t>
   </si>
   <si>
@@ -993,9 +894,6 @@
     <t>sturnus vulgaris</t>
   </si>
   <si>
-    <t>škorec</t>
-  </si>
-  <si>
     <t>94.jpg</t>
   </si>
   <si>
@@ -1005,9 +903,6 @@
     <t>passer domesticus</t>
   </si>
   <si>
-    <t>domači vrabec</t>
-  </si>
-  <si>
     <t>95.jpg</t>
   </si>
   <si>
@@ -1026,9 +921,6 @@
     <t>fringilla coelebs</t>
   </si>
   <si>
-    <t>ščinkovec</t>
-  </si>
-  <si>
     <t>carduelis chloris</t>
   </si>
   <si>
@@ -1038,15 +930,9 @@
     <t>carduelis spinus</t>
   </si>
   <si>
-    <t>čižek</t>
-  </si>
-  <si>
     <t>carduelis carduelis</t>
   </si>
   <si>
-    <t>lišček</t>
-  </si>
-  <si>
     <t>pyrrhula pyrrhula</t>
   </si>
   <si>
@@ -1062,9 +948,6 @@
     <t>serinus serinus</t>
   </si>
   <si>
-    <t>grilček</t>
-  </si>
-  <si>
     <t>loxia curvirostra</t>
   </si>
   <si>
@@ -1108,6 +991,1080 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>kdo</t>
+  </si>
+  <si>
+    <t>ribe</t>
+  </si>
+  <si>
+    <t>ptici</t>
+  </si>
+  <si>
+    <t>sesalci</t>
+  </si>
+  <si>
+    <t>soricidae</t>
+  </si>
+  <si>
+    <t>suncus etruscus</t>
+  </si>
+  <si>
+    <t>crocidura suaveolens</t>
+  </si>
+  <si>
+    <t>neomys sp.</t>
+  </si>
+  <si>
+    <t>sorex alpinus</t>
+  </si>
+  <si>
+    <t>sorex minutus</t>
+  </si>
+  <si>
+    <t>vrtna rovka</t>
+  </si>
+  <si>
+    <t>gorska rovka</t>
+  </si>
+  <si>
+    <t>gozdna rovka</t>
+  </si>
+  <si>
+    <t>mala rovka</t>
+  </si>
+  <si>
+    <t>talpidae</t>
+  </si>
+  <si>
+    <t>talpa europaea</t>
+  </si>
+  <si>
+    <t>evropski krt</t>
+  </si>
+  <si>
+    <t>erinaceidae</t>
+  </si>
+  <si>
+    <t>erinaceus concolor</t>
+  </si>
+  <si>
+    <t>erinaceus europaeus</t>
+  </si>
+  <si>
+    <t>avricolidae</t>
+  </si>
+  <si>
+    <t>arvicola terrestris</t>
+  </si>
+  <si>
+    <t>veliki voluhar</t>
+  </si>
+  <si>
+    <t>clethrionomys glareolus</t>
+  </si>
+  <si>
+    <t>gozdna voluharica</t>
+  </si>
+  <si>
+    <t>chionomys nivalis</t>
+  </si>
+  <si>
+    <t>microtus agrestris</t>
+  </si>
+  <si>
+    <t>ondatra zibethicus</t>
+  </si>
+  <si>
+    <t>muridae</t>
+  </si>
+  <si>
+    <t>rattus norvegicus</t>
+  </si>
+  <si>
+    <t>rattus rattus</t>
+  </si>
+  <si>
+    <t>mus musculus</t>
+  </si>
+  <si>
+    <t>apodemus agrarius</t>
+  </si>
+  <si>
+    <t>apodemus sylvaticus</t>
+  </si>
+  <si>
+    <t>apodemus flavicolis</t>
+  </si>
+  <si>
+    <t>mycromys minutus</t>
+  </si>
+  <si>
+    <t>siva podgana</t>
+  </si>
+  <si>
+    <t>cricetus cricetus</t>
+  </si>
+  <si>
+    <t>cricetidae</t>
+  </si>
+  <si>
+    <t>gliridae</t>
+  </si>
+  <si>
+    <t>glis glis</t>
+  </si>
+  <si>
+    <t>navadni polh</t>
+  </si>
+  <si>
+    <t>dryomis nitedula</t>
+  </si>
+  <si>
+    <t>drevesni polh</t>
+  </si>
+  <si>
+    <t>eliomys quercinus</t>
+  </si>
+  <si>
+    <t>vrtni polh</t>
+  </si>
+  <si>
+    <t>muscardinus avellanarius</t>
+  </si>
+  <si>
+    <t>podlesek</t>
+  </si>
+  <si>
+    <t>sciuridae</t>
+  </si>
+  <si>
+    <t>sciurus vulgaris</t>
+  </si>
+  <si>
+    <t>marmota marmota</t>
+  </si>
+  <si>
+    <t>navadna veverica</t>
+  </si>
+  <si>
+    <t>alpski svizec</t>
+  </si>
+  <si>
+    <t>castoridae</t>
+  </si>
+  <si>
+    <t>castor fiber</t>
+  </si>
+  <si>
+    <t>bober</t>
+  </si>
+  <si>
+    <t>myocastor myocastor</t>
+  </si>
+  <si>
+    <t>nutrija</t>
+  </si>
+  <si>
+    <t>myocastoridae</t>
+  </si>
+  <si>
+    <t>leporidae</t>
+  </si>
+  <si>
+    <t>lepus europaeus</t>
+  </si>
+  <si>
+    <t>poljski zajec</t>
+  </si>
+  <si>
+    <t>lepus timidus</t>
+  </si>
+  <si>
+    <t>oryctolagus cuniculus</t>
+  </si>
+  <si>
+    <t>planinski zajec</t>
+  </si>
+  <si>
+    <t>kunec</t>
+  </si>
+  <si>
+    <t>mustelidae</t>
+  </si>
+  <si>
+    <t>mustela erminea</t>
+  </si>
+  <si>
+    <t>hremlin</t>
+  </si>
+  <si>
+    <t>mustela nivalis</t>
+  </si>
+  <si>
+    <t>mala podlasica</t>
+  </si>
+  <si>
+    <t>mustela putorius</t>
+  </si>
+  <si>
+    <t>dihur</t>
+  </si>
+  <si>
+    <t>martes martes</t>
+  </si>
+  <si>
+    <t>kuna zlatica</t>
+  </si>
+  <si>
+    <t>martes foina</t>
+  </si>
+  <si>
+    <t>kuna belica</t>
+  </si>
+  <si>
+    <t>meles meles</t>
+  </si>
+  <si>
+    <t>jazbec</t>
+  </si>
+  <si>
+    <t>lutra lutra</t>
+  </si>
+  <si>
+    <t>vidra</t>
+  </si>
+  <si>
+    <t>ursidae</t>
+  </si>
+  <si>
+    <t>ursus arctos</t>
+  </si>
+  <si>
+    <t>rjavi medved</t>
+  </si>
+  <si>
+    <t>felidae</t>
+  </si>
+  <si>
+    <t>felis silvestris</t>
+  </si>
+  <si>
+    <t>lynx lynx</t>
+  </si>
+  <si>
+    <t>evrazijski ris</t>
+  </si>
+  <si>
+    <t>canidae</t>
+  </si>
+  <si>
+    <t>canis lupus</t>
+  </si>
+  <si>
+    <t>canis aureus</t>
+  </si>
+  <si>
+    <t>volk</t>
+  </si>
+  <si>
+    <t>lisica</t>
+  </si>
+  <si>
+    <t>sus scrofa</t>
+  </si>
+  <si>
+    <t>suidae</t>
+  </si>
+  <si>
+    <t>cervidae</t>
+  </si>
+  <si>
+    <t>cervus elaphus</t>
+  </si>
+  <si>
+    <t>dama dama</t>
+  </si>
+  <si>
+    <t>capreolus capreolus</t>
+  </si>
+  <si>
+    <t>jelen</t>
+  </si>
+  <si>
+    <t>damjek</t>
+  </si>
+  <si>
+    <t>srnjak</t>
+  </si>
+  <si>
+    <t>bovidae</t>
+  </si>
+  <si>
+    <t>rupicapra rupicapra</t>
+  </si>
+  <si>
+    <t>gams</t>
+  </si>
+  <si>
+    <t>capra ibex</t>
+  </si>
+  <si>
+    <t>alpski kozorog</t>
+  </si>
+  <si>
+    <t>ovis ammon</t>
+  </si>
+  <si>
+    <t>muflon</t>
+  </si>
+  <si>
+    <t>bos primigenius</t>
+  </si>
+  <si>
+    <t>tur</t>
+  </si>
+  <si>
+    <t>soerx araneus</t>
+  </si>
+  <si>
+    <t>vulpes vulpes</t>
+  </si>
+  <si>
+    <t>106.jpg</t>
+  </si>
+  <si>
+    <t>107.jpg</t>
+  </si>
+  <si>
+    <t>108.jpg</t>
+  </si>
+  <si>
+    <t>109.jpg</t>
+  </si>
+  <si>
+    <t>110.jpg</t>
+  </si>
+  <si>
+    <t>111.jpg</t>
+  </si>
+  <si>
+    <t>112.jpg</t>
+  </si>
+  <si>
+    <t>113.jpg</t>
+  </si>
+  <si>
+    <t>114.jpg</t>
+  </si>
+  <si>
+    <t>115.jpg</t>
+  </si>
+  <si>
+    <t>116.jpg</t>
+  </si>
+  <si>
+    <t>117.jpg</t>
+  </si>
+  <si>
+    <t>118.jpg</t>
+  </si>
+  <si>
+    <t>119.jpg</t>
+  </si>
+  <si>
+    <t>120.jpg</t>
+  </si>
+  <si>
+    <t>121.jpg</t>
+  </si>
+  <si>
+    <t>122.jpg</t>
+  </si>
+  <si>
+    <t>123.jpg</t>
+  </si>
+  <si>
+    <t>124.jpg</t>
+  </si>
+  <si>
+    <t>125.jpg</t>
+  </si>
+  <si>
+    <t>126.jpg</t>
+  </si>
+  <si>
+    <t>127.jpg</t>
+  </si>
+  <si>
+    <t>128.jpg</t>
+  </si>
+  <si>
+    <t>129.jpg</t>
+  </si>
+  <si>
+    <t>130.jpg</t>
+  </si>
+  <si>
+    <t>131.jpg</t>
+  </si>
+  <si>
+    <t>132.jpg</t>
+  </si>
+  <si>
+    <t>133.jpg</t>
+  </si>
+  <si>
+    <t>134.jpg</t>
+  </si>
+  <si>
+    <t>135.jpg</t>
+  </si>
+  <si>
+    <t>136.jpg</t>
+  </si>
+  <si>
+    <t>137.jpg</t>
+  </si>
+  <si>
+    <t>138.jpg</t>
+  </si>
+  <si>
+    <t>139.jpg</t>
+  </si>
+  <si>
+    <t>140.jpg</t>
+  </si>
+  <si>
+    <t>141.jpg</t>
+  </si>
+  <si>
+    <t>142.jpg</t>
+  </si>
+  <si>
+    <t>143.jpg</t>
+  </si>
+  <si>
+    <t>144.jpg</t>
+  </si>
+  <si>
+    <t>145.jpg</t>
+  </si>
+  <si>
+    <t>146.jpg</t>
+  </si>
+  <si>
+    <t>147.jpg</t>
+  </si>
+  <si>
+    <t>148.jpg</t>
+  </si>
+  <si>
+    <t>149.jpg</t>
+  </si>
+  <si>
+    <t>150.jpg</t>
+  </si>
+  <si>
+    <t>151.jpg</t>
+  </si>
+  <si>
+    <t>152.jpg</t>
+  </si>
+  <si>
+    <t>153.jpg</t>
+  </si>
+  <si>
+    <t>154.jpg</t>
+  </si>
+  <si>
+    <t>155.jpg</t>
+  </si>
+  <si>
+    <t>156.jpg</t>
+  </si>
+  <si>
+    <t>157.jpg</t>
+  </si>
+  <si>
+    <t>158.jpg</t>
+  </si>
+  <si>
+    <t>159.jpg</t>
+  </si>
+  <si>
+    <t>dvozivke</t>
+  </si>
+  <si>
+    <t>proteidae</t>
+  </si>
+  <si>
+    <t>proteus anguinus</t>
+  </si>
+  <si>
+    <t>salamandridae</t>
+  </si>
+  <si>
+    <t>salamandra alamanadra</t>
+  </si>
+  <si>
+    <t>salamandra atra</t>
+  </si>
+  <si>
+    <t>lissotriton vulgaris</t>
+  </si>
+  <si>
+    <t>mali pupek</t>
+  </si>
+  <si>
+    <t>mesotriton alpestris</t>
+  </si>
+  <si>
+    <t>planinski pupek</t>
+  </si>
+  <si>
+    <t>triturus carnifex</t>
+  </si>
+  <si>
+    <t>veliki pupek</t>
+  </si>
+  <si>
+    <t>bufonidae</t>
+  </si>
+  <si>
+    <t>bufo bufo</t>
+  </si>
+  <si>
+    <t>bufo viridis</t>
+  </si>
+  <si>
+    <t>hylidae</t>
+  </si>
+  <si>
+    <t>hyla arborea</t>
+  </si>
+  <si>
+    <t>zelena rega</t>
+  </si>
+  <si>
+    <t>bombinatoridae</t>
+  </si>
+  <si>
+    <t>bombina bombina</t>
+  </si>
+  <si>
+    <t>bombina veriegata</t>
+  </si>
+  <si>
+    <t>hribski urh</t>
+  </si>
+  <si>
+    <t>pelobatidae</t>
+  </si>
+  <si>
+    <t>pelobates fuscus</t>
+  </si>
+  <si>
+    <t>ranidae</t>
+  </si>
+  <si>
+    <t>rana sp.</t>
+  </si>
+  <si>
+    <t>pelophylax sp.</t>
+  </si>
+  <si>
+    <t>160.jpg</t>
+  </si>
+  <si>
+    <t>161.jpg</t>
+  </si>
+  <si>
+    <t>162.jpg</t>
+  </si>
+  <si>
+    <t>163.jpg</t>
+  </si>
+  <si>
+    <t>164.jpg</t>
+  </si>
+  <si>
+    <t>165.jpg</t>
+  </si>
+  <si>
+    <t>166.jpg</t>
+  </si>
+  <si>
+    <t>167.jpg</t>
+  </si>
+  <si>
+    <t>168.jpg</t>
+  </si>
+  <si>
+    <t>169.jpg</t>
+  </si>
+  <si>
+    <t>170.jpg</t>
+  </si>
+  <si>
+    <t>171.jpg</t>
+  </si>
+  <si>
+    <t>172.jpg</t>
+  </si>
+  <si>
+    <t>173.jpg</t>
+  </si>
+  <si>
+    <t>plazilci</t>
+  </si>
+  <si>
+    <t>cheloniidae</t>
+  </si>
+  <si>
+    <t>caretta caretta</t>
+  </si>
+  <si>
+    <t>glavata kareta</t>
+  </si>
+  <si>
+    <t>testudinidae</t>
+  </si>
+  <si>
+    <t>testudo hermanni</t>
+  </si>
+  <si>
+    <t>testudo graecea</t>
+  </si>
+  <si>
+    <t>emydidae</t>
+  </si>
+  <si>
+    <t>emys orbicularis</t>
+  </si>
+  <si>
+    <t>trachemys scripta</t>
+  </si>
+  <si>
+    <t>anguidae</t>
+  </si>
+  <si>
+    <t>anguis fragilis</t>
+  </si>
+  <si>
+    <t>pseudopus apodus</t>
+  </si>
+  <si>
+    <t>slepec</t>
+  </si>
+  <si>
+    <t>blavor</t>
+  </si>
+  <si>
+    <t>lacertidae</t>
+  </si>
+  <si>
+    <t>algyroides nigropunctatus</t>
+  </si>
+  <si>
+    <t>lacerta agilis</t>
+  </si>
+  <si>
+    <t>lacerta viridis</t>
+  </si>
+  <si>
+    <t>zootica vivipara</t>
+  </si>
+  <si>
+    <t>lacerta horvathi</t>
+  </si>
+  <si>
+    <t>podarcis muralis</t>
+  </si>
+  <si>
+    <t>podarcis sicula</t>
+  </si>
+  <si>
+    <t>columbridae</t>
+  </si>
+  <si>
+    <t>zamenis longissima</t>
+  </si>
+  <si>
+    <t>elaphe quatuorlineata</t>
+  </si>
+  <si>
+    <t>cornella austriaca</t>
+  </si>
+  <si>
+    <t>smokulja</t>
+  </si>
+  <si>
+    <t>coluber viridiflavus</t>
+  </si>
+  <si>
+    <t>columber gemonensis</t>
+  </si>
+  <si>
+    <t>belica</t>
+  </si>
+  <si>
+    <t>natrix natrix</t>
+  </si>
+  <si>
+    <t>natrix tessellata</t>
+  </si>
+  <si>
+    <t>kobranka</t>
+  </si>
+  <si>
+    <t>telescopus fallax</t>
+  </si>
+  <si>
+    <t>malpolon monspessulanus</t>
+  </si>
+  <si>
+    <t>zrva</t>
+  </si>
+  <si>
+    <t>viperidae</t>
+  </si>
+  <si>
+    <t>vipera berus</t>
+  </si>
+  <si>
+    <t>gad</t>
+  </si>
+  <si>
+    <t>vipera ammodytes</t>
+  </si>
+  <si>
+    <t>modras</t>
+  </si>
+  <si>
+    <t>vipera aspis</t>
+  </si>
+  <si>
+    <t>174.jpg</t>
+  </si>
+  <si>
+    <t>175.jpg</t>
+  </si>
+  <si>
+    <t>176.jpg</t>
+  </si>
+  <si>
+    <t>177.jpg</t>
+  </si>
+  <si>
+    <t>178.jpg</t>
+  </si>
+  <si>
+    <t>179.jpg</t>
+  </si>
+  <si>
+    <t>180.jpg</t>
+  </si>
+  <si>
+    <t>181.jpg</t>
+  </si>
+  <si>
+    <t>182.jpg</t>
+  </si>
+  <si>
+    <t>183.jpg</t>
+  </si>
+  <si>
+    <t>184.jpg</t>
+  </si>
+  <si>
+    <t>185.jpg</t>
+  </si>
+  <si>
+    <t>186.jpg</t>
+  </si>
+  <si>
+    <t>187.jpg</t>
+  </si>
+  <si>
+    <t>188.jpg</t>
+  </si>
+  <si>
+    <t>189.jpg</t>
+  </si>
+  <si>
+    <t>190.jpg</t>
+  </si>
+  <si>
+    <t>191.jpg</t>
+  </si>
+  <si>
+    <t>192.jpg</t>
+  </si>
+  <si>
+    <t>193.jpg</t>
+  </si>
+  <si>
+    <t>194.jpg</t>
+  </si>
+  <si>
+    <t>195.jpg</t>
+  </si>
+  <si>
+    <t>196.jpg</t>
+  </si>
+  <si>
+    <t>197.jpg</t>
+  </si>
+  <si>
+    <t>198.jpg</t>
+  </si>
+  <si>
+    <t>199.jpg</t>
+  </si>
+  <si>
+    <t>bela storklja</t>
+  </si>
+  <si>
+    <t>rusevec</t>
+  </si>
+  <si>
+    <t>veliki skurh</t>
+  </si>
+  <si>
+    <t>turska grlica</t>
+  </si>
+  <si>
+    <t>poljski skrjanec</t>
+  </si>
+  <si>
+    <t>smarnica</t>
+  </si>
+  <si>
+    <t>soja</t>
+  </si>
+  <si>
+    <t>skorec</t>
+  </si>
+  <si>
+    <t>travniska voluharica</t>
+  </si>
+  <si>
+    <t>hisna mis</t>
+  </si>
+  <si>
+    <t>dimasta mis</t>
+  </si>
+  <si>
+    <t>navadna belonoga mis</t>
+  </si>
+  <si>
+    <t>rumenogrla mis</t>
+  </si>
+  <si>
+    <t>pritlikava mis</t>
+  </si>
+  <si>
+    <t>sakal</t>
+  </si>
+  <si>
+    <t>belouska</t>
+  </si>
+  <si>
+    <t>laski gad</t>
+  </si>
+  <si>
+    <t>copasti ponirek</t>
+  </si>
+  <si>
+    <t>siva caplja</t>
+  </si>
+  <si>
+    <t>mala bela caplja</t>
+  </si>
+  <si>
+    <t>velika bela caplja</t>
+  </si>
+  <si>
+    <t>crna storklja</t>
+  </si>
+  <si>
+    <t>copasta crnica</t>
+  </si>
+  <si>
+    <t>recni galeb</t>
+  </si>
+  <si>
+    <t>navadna cigra</t>
+  </si>
+  <si>
+    <t>cuk</t>
+  </si>
+  <si>
+    <t>kmecka lastovka</t>
+  </si>
+  <si>
+    <t>tascica</t>
+  </si>
+  <si>
+    <t>repaljscica</t>
+  </si>
+  <si>
+    <t>crnoglavke</t>
+  </si>
+  <si>
+    <t>kovacek</t>
+  </si>
+  <si>
+    <t>mocvirska trstnica</t>
+  </si>
+  <si>
+    <t>rumenoglavi kralicek</t>
+  </si>
+  <si>
+    <t>plavcek</t>
+  </si>
+  <si>
+    <t>meniscek</t>
+  </si>
+  <si>
+    <t>copatasta sinica</t>
+  </si>
+  <si>
+    <t>kratkoprsti plezalcek</t>
+  </si>
+  <si>
+    <t>domaci vrabec</t>
+  </si>
+  <si>
+    <t>scinkovec</t>
+  </si>
+  <si>
+    <t>liscek</t>
+  </si>
+  <si>
+    <t>grilcek</t>
+  </si>
+  <si>
+    <t>etruscanska rovka</t>
+  </si>
+  <si>
+    <t>mocvirska rovka</t>
+  </si>
+  <si>
+    <t>crna podgana</t>
+  </si>
+  <si>
+    <t>veliki hrcek</t>
+  </si>
+  <si>
+    <t>divja macka</t>
+  </si>
+  <si>
+    <t>divji prasic</t>
+  </si>
+  <si>
+    <t>cloveska ribica</t>
+  </si>
+  <si>
+    <t>mocerad</t>
+  </si>
+  <si>
+    <t>planinski mocerad</t>
+  </si>
+  <si>
+    <t>krastaca</t>
+  </si>
+  <si>
+    <t>zelena krastaca</t>
+  </si>
+  <si>
+    <t>cesnovka</t>
+  </si>
+  <si>
+    <t>grska kornjaca</t>
+  </si>
+  <si>
+    <t>mavrska kornjaca</t>
+  </si>
+  <si>
+    <t>mocvirska sklednica</t>
+  </si>
+  <si>
+    <t>rdece vratka</t>
+  </si>
+  <si>
+    <t>crnopikcasta kuscarica</t>
+  </si>
+  <si>
+    <t>martincek</t>
+  </si>
+  <si>
+    <t>velebitska kuscarica</t>
+  </si>
+  <si>
+    <t>pozidna kuscarica</t>
+  </si>
+  <si>
+    <t>primorska kuscarica</t>
+  </si>
+  <si>
+    <t>crnica</t>
+  </si>
+  <si>
+    <t>macjeoka kaca</t>
+  </si>
+  <si>
+    <t>veliki zagar</t>
+  </si>
+  <si>
+    <t>mali dezevnik</t>
+  </si>
+  <si>
+    <t>zelena zolna</t>
+  </si>
+  <si>
+    <t>siva zolna</t>
+  </si>
+  <si>
+    <t>crna zolna</t>
+  </si>
+  <si>
+    <t>strzek</t>
+  </si>
+  <si>
+    <t>cizek</t>
+  </si>
+  <si>
+    <t>beloprsi jez</t>
+  </si>
+  <si>
+    <t>rjavopsri jez</t>
+  </si>
+  <si>
+    <t>snezna voluharica</t>
+  </si>
+  <si>
+    <t>pizmovka</t>
+  </si>
+  <si>
+    <t>nizinski urh</t>
+  </si>
+  <si>
+    <t>rjava zaba</t>
+  </si>
+  <si>
+    <t>zelena zaba</t>
+  </si>
+  <si>
+    <t>zivorodna kuscarica</t>
+  </si>
+  <si>
+    <t>goz</t>
+  </si>
+  <si>
+    <t>progasti goz</t>
   </si>
 </sst>
 </file>
@@ -1425,9 +2382,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1436,9 +2395,9 @@
     <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1452,8 +2411,11 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1469,8 +2431,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1486,8 +2451,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1503,8 +2471,11 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1515,13 +2486,16 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1529,1713 +2503,3896 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>620</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>621</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>601</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>622</v>
+      </c>
+      <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>623</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>665</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="F18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
       <c r="E22" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D27" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
       <c r="E28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="F29" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E30" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="F30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" t="s">
+        <v>602</v>
+      </c>
+      <c r="E31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" t="s">
-        <v>104</v>
-      </c>
-      <c r="E31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="F33" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+      <c r="F34" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
         <v>109</v>
       </c>
-      <c r="C35" t="s">
-        <v>116</v>
-      </c>
-      <c r="D35" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>666</v>
       </c>
       <c r="E36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="F37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C38" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D38" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="F38" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>131</v>
+        <v>603</v>
       </c>
       <c r="E39" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="F39" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="F40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>141</v>
+        <v>624</v>
       </c>
       <c r="E42" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="F42" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>145</v>
+        <v>625</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="F43" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D45" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F45" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D46" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="F46" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>604</v>
       </c>
       <c r="E47" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="F47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E48" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="F48" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D49" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E49" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="F49" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D50" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="F50" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>626</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="F51" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="F52" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D53" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="F53" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D54" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="E54" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="F54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+      <c r="F55" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="D56" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="E56" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+      <c r="F56" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>667</v>
       </c>
       <c r="E57" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="F57" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>198</v>
+        <v>668</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+      <c r="F58" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>669</v>
       </c>
       <c r="E59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F59" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>605</v>
       </c>
       <c r="E60" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+      <c r="F60" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>209</v>
+        <v>627</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+      <c r="F61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+      <c r="F62" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="D63" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="E63" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+      <c r="F63" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C64" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D64" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="E65" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+      <c r="F65" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
-        <v>226</v>
+        <v>670</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="F66" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="E67" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>232</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="F68" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
       <c r="E69" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+      <c r="F69" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C70" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="D70" t="s">
-        <v>238</v>
+        <v>628</v>
       </c>
       <c r="E70" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+      <c r="F70" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C71" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>241</v>
+        <v>606</v>
       </c>
       <c r="E71" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="F71" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C72" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="E72" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="F72" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>249</v>
+        <v>629</v>
       </c>
       <c r="E73" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+      <c r="F73" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>252</v>
+        <v>630</v>
       </c>
       <c r="E74" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="F74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C75" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+      <c r="F75" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C76" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>258</v>
+        <v>631</v>
       </c>
       <c r="E76" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="F76" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="D77" t="s">
-        <v>261</v>
+        <v>632</v>
       </c>
       <c r="E77" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+      <c r="F77" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C78" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>633</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="F78" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="C79" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="F79" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D80" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="E80" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+      <c r="F80" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="D81" t="s">
-        <v>275</v>
+        <v>634</v>
       </c>
       <c r="E81" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="F81" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C82" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>635</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+      <c r="F82" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C83" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="D83" t="s">
-        <v>281</v>
+        <v>636</v>
       </c>
       <c r="E83" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+      <c r="F83" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="E84" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="F84" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="C85" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="D85" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="E85" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+      <c r="F85" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="C86" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="D86" t="s">
-        <v>293</v>
+        <v>637</v>
       </c>
       <c r="E86" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="F86" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="C87" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="D87" t="s">
-        <v>297</v>
+        <v>265</v>
       </c>
       <c r="E87" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F87" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+      <c r="F88" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C89" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="D89" t="s">
-        <v>307</v>
+        <v>275</v>
       </c>
       <c r="E89" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+      <c r="F89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C90" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>309</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="F90" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>311</v>
+        <v>279</v>
       </c>
       <c r="D91" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="E91" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+      <c r="F91" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C92" t="s">
-        <v>313</v>
+        <v>281</v>
       </c>
       <c r="D92" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="F92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C93" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
+        <v>607</v>
       </c>
       <c r="E93" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+      <c r="F93" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="C94" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="D94" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="E94" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+      <c r="F94" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>322</v>
+        <v>289</v>
       </c>
       <c r="C95" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
       <c r="D95" t="s">
-        <v>324</v>
+        <v>608</v>
       </c>
       <c r="E95" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="F95" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="D96" t="s">
-        <v>328</v>
+        <v>638</v>
       </c>
       <c r="E96" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F96" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="C97" t="s">
-        <v>330</v>
+        <v>295</v>
       </c>
       <c r="D97" t="s">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="F97" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="D98" t="s">
-        <v>335</v>
+        <v>639</v>
       </c>
       <c r="E98" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="F98" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="D99" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="E99" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+      <c r="F99" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C100" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
       <c r="D100" t="s">
-        <v>339</v>
+        <v>671</v>
       </c>
       <c r="E100" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="F100" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="D101" t="s">
-        <v>341</v>
+        <v>640</v>
       </c>
       <c r="E101" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+      <c r="F101" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="D102" t="s">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="E102" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+      <c r="F102" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C103" t="s">
-        <v>344</v>
+        <v>306</v>
       </c>
       <c r="D103" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="E103" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+      <c r="F103" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C104" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="D104" t="s">
-        <v>347</v>
+        <v>641</v>
       </c>
       <c r="E104" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+      <c r="F104" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>333</v>
+        <v>298</v>
       </c>
       <c r="C105" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="D105" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="E105" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F105" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>311</v>
+      </c>
+      <c r="C106" t="s">
+        <v>312</v>
+      </c>
+      <c r="D106" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" t="s">
+        <v>322</v>
+      </c>
+      <c r="F106" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>328</v>
+      </c>
+      <c r="C107" t="s">
+        <v>329</v>
+      </c>
+      <c r="D107" t="s">
+        <v>642</v>
+      </c>
+      <c r="E107" t="s">
+        <v>437</v>
+      </c>
+      <c r="F107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>328</v>
+      </c>
+      <c r="C108" t="s">
+        <v>330</v>
+      </c>
+      <c r="D108" t="s">
+        <v>334</v>
+      </c>
+      <c r="E108" t="s">
+        <v>438</v>
+      </c>
+      <c r="F108" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" t="s">
+        <v>331</v>
+      </c>
+      <c r="D109" t="s">
+        <v>643</v>
+      </c>
+      <c r="E109" t="s">
+        <v>439</v>
+      </c>
+      <c r="F109" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>328</v>
+      </c>
+      <c r="C110" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" t="s">
+        <v>335</v>
+      </c>
+      <c r="E110" t="s">
+        <v>440</v>
+      </c>
+      <c r="F110" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>328</v>
+      </c>
+      <c r="C111" t="s">
+        <v>435</v>
+      </c>
+      <c r="D111" t="s">
+        <v>336</v>
+      </c>
+      <c r="E111" t="s">
+        <v>441</v>
+      </c>
+      <c r="F111" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>328</v>
+      </c>
+      <c r="C112" t="s">
+        <v>333</v>
+      </c>
+      <c r="D112" t="s">
+        <v>337</v>
+      </c>
+      <c r="E112" t="s">
+        <v>442</v>
+      </c>
+      <c r="F112" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>338</v>
+      </c>
+      <c r="C113" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" t="s">
+        <v>340</v>
+      </c>
+      <c r="E113" t="s">
+        <v>443</v>
+      </c>
+      <c r="F113" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" t="s">
+        <v>342</v>
+      </c>
+      <c r="D114" t="s">
+        <v>672</v>
+      </c>
+      <c r="E114" t="s">
+        <v>444</v>
+      </c>
+      <c r="F114" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" t="s">
+        <v>343</v>
+      </c>
+      <c r="D115" t="s">
+        <v>673</v>
+      </c>
+      <c r="E115" t="s">
+        <v>445</v>
+      </c>
+      <c r="F115" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" t="s">
+        <v>345</v>
+      </c>
+      <c r="D116" t="s">
+        <v>346</v>
+      </c>
+      <c r="E116" t="s">
+        <v>446</v>
+      </c>
+      <c r="F116" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" t="s">
+        <v>347</v>
+      </c>
+      <c r="D117" t="s">
+        <v>348</v>
+      </c>
+      <c r="E117" t="s">
+        <v>447</v>
+      </c>
+      <c r="F117" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>344</v>
+      </c>
+      <c r="C118" t="s">
+        <v>349</v>
+      </c>
+      <c r="D118" t="s">
+        <v>674</v>
+      </c>
+      <c r="E118" t="s">
+        <v>448</v>
+      </c>
+      <c r="F118" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>344</v>
+      </c>
+      <c r="C119" t="s">
         <v>350</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D119" t="s">
+        <v>609</v>
+      </c>
+      <c r="E119" t="s">
+        <v>449</v>
+      </c>
+      <c r="F119" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" t="s">
         <v>351</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D120" t="s">
+        <v>675</v>
+      </c>
+      <c r="E120" t="s">
+        <v>450</v>
+      </c>
+      <c r="F120" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
         <v>352</v>
       </c>
-      <c r="E106" t="s">
+      <c r="C121" t="s">
+        <v>353</v>
+      </c>
+      <c r="D121" t="s">
+        <v>360</v>
+      </c>
+      <c r="E121" t="s">
+        <v>451</v>
+      </c>
+      <c r="F121" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>352</v>
+      </c>
+      <c r="C122" t="s">
+        <v>354</v>
+      </c>
+      <c r="D122" t="s">
+        <v>644</v>
+      </c>
+      <c r="E122" t="s">
+        <v>452</v>
+      </c>
+      <c r="F122" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>352</v>
+      </c>
+      <c r="C123" t="s">
+        <v>355</v>
+      </c>
+      <c r="D123" t="s">
+        <v>610</v>
+      </c>
+      <c r="E123" t="s">
+        <v>453</v>
+      </c>
+      <c r="F123" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" t="s">
+        <v>356</v>
+      </c>
+      <c r="D124" t="s">
+        <v>611</v>
+      </c>
+      <c r="E124" t="s">
+        <v>454</v>
+      </c>
+      <c r="F124" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" t="s">
+        <v>357</v>
+      </c>
+      <c r="D125" t="s">
+        <v>612</v>
+      </c>
+      <c r="E125" t="s">
+        <v>455</v>
+      </c>
+      <c r="F125" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>352</v>
+      </c>
+      <c r="C126" t="s">
+        <v>358</v>
+      </c>
+      <c r="D126" t="s">
+        <v>613</v>
+      </c>
+      <c r="E126" t="s">
+        <v>456</v>
+      </c>
+      <c r="F126" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127" t="s">
+        <v>614</v>
+      </c>
+      <c r="E127" t="s">
+        <v>457</v>
+      </c>
+      <c r="F127" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>362</v>
+      </c>
+      <c r="C128" t="s">
         <v>361</v>
+      </c>
+      <c r="D128" t="s">
+        <v>645</v>
+      </c>
+      <c r="E128" t="s">
+        <v>458</v>
+      </c>
+      <c r="F128" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>363</v>
+      </c>
+      <c r="C129" t="s">
+        <v>364</v>
+      </c>
+      <c r="D129" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" t="s">
+        <v>459</v>
+      </c>
+      <c r="F129" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>363</v>
+      </c>
+      <c r="C130" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" t="s">
+        <v>367</v>
+      </c>
+      <c r="E130" t="s">
+        <v>460</v>
+      </c>
+      <c r="F130" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>363</v>
+      </c>
+      <c r="C131" t="s">
+        <v>368</v>
+      </c>
+      <c r="D131" t="s">
+        <v>369</v>
+      </c>
+      <c r="E131" t="s">
+        <v>461</v>
+      </c>
+      <c r="F131" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>363</v>
+      </c>
+      <c r="C132" t="s">
+        <v>370</v>
+      </c>
+      <c r="D132" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132" t="s">
+        <v>462</v>
+      </c>
+      <c r="F132" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133" t="s">
+        <v>463</v>
+      </c>
+      <c r="F133" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>372</v>
+      </c>
+      <c r="C134" t="s">
+        <v>374</v>
+      </c>
+      <c r="D134" t="s">
+        <v>376</v>
+      </c>
+      <c r="E134" t="s">
+        <v>464</v>
+      </c>
+      <c r="F134" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>377</v>
+      </c>
+      <c r="C135" t="s">
+        <v>378</v>
+      </c>
+      <c r="D135" t="s">
+        <v>379</v>
+      </c>
+      <c r="E135" t="s">
+        <v>465</v>
+      </c>
+      <c r="F135" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>382</v>
+      </c>
+      <c r="C136" t="s">
+        <v>380</v>
+      </c>
+      <c r="D136" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" t="s">
+        <v>466</v>
+      </c>
+      <c r="F136" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>383</v>
+      </c>
+      <c r="C137" t="s">
+        <v>384</v>
+      </c>
+      <c r="D137" t="s">
+        <v>385</v>
+      </c>
+      <c r="E137" t="s">
+        <v>467</v>
+      </c>
+      <c r="F137" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" t="s">
+        <v>386</v>
+      </c>
+      <c r="D138" t="s">
+        <v>388</v>
+      </c>
+      <c r="E138" t="s">
+        <v>468</v>
+      </c>
+      <c r="F138" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>383</v>
+      </c>
+      <c r="C139" t="s">
+        <v>387</v>
+      </c>
+      <c r="D139" t="s">
+        <v>389</v>
+      </c>
+      <c r="E139" t="s">
+        <v>469</v>
+      </c>
+      <c r="F139" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>390</v>
+      </c>
+      <c r="C140" t="s">
+        <v>391</v>
+      </c>
+      <c r="D140" t="s">
+        <v>392</v>
+      </c>
+      <c r="E140" t="s">
+        <v>470</v>
+      </c>
+      <c r="F140" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>390</v>
+      </c>
+      <c r="C141" t="s">
+        <v>393</v>
+      </c>
+      <c r="D141" t="s">
+        <v>394</v>
+      </c>
+      <c r="E141" t="s">
+        <v>471</v>
+      </c>
+      <c r="F141" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>390</v>
+      </c>
+      <c r="C142" t="s">
+        <v>395</v>
+      </c>
+      <c r="D142" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" t="s">
+        <v>472</v>
+      </c>
+      <c r="F142" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>390</v>
+      </c>
+      <c r="C143" t="s">
+        <v>397</v>
+      </c>
+      <c r="D143" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" t="s">
+        <v>473</v>
+      </c>
+      <c r="F143" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>390</v>
+      </c>
+      <c r="C144" t="s">
+        <v>399</v>
+      </c>
+      <c r="D144" t="s">
+        <v>400</v>
+      </c>
+      <c r="E144" t="s">
+        <v>474</v>
+      </c>
+      <c r="F144" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>390</v>
+      </c>
+      <c r="C145" t="s">
+        <v>401</v>
+      </c>
+      <c r="D145" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" t="s">
+        <v>475</v>
+      </c>
+      <c r="F145" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>390</v>
+      </c>
+      <c r="C146" t="s">
+        <v>403</v>
+      </c>
+      <c r="D146" t="s">
+        <v>404</v>
+      </c>
+      <c r="E146" t="s">
+        <v>476</v>
+      </c>
+      <c r="F146" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>405</v>
+      </c>
+      <c r="C147" t="s">
+        <v>406</v>
+      </c>
+      <c r="D147" t="s">
+        <v>407</v>
+      </c>
+      <c r="E147" t="s">
+        <v>477</v>
+      </c>
+      <c r="F147" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>408</v>
+      </c>
+      <c r="C148" t="s">
+        <v>409</v>
+      </c>
+      <c r="D148" t="s">
+        <v>646</v>
+      </c>
+      <c r="E148" t="s">
+        <v>478</v>
+      </c>
+      <c r="F148" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>408</v>
+      </c>
+      <c r="C149" t="s">
+        <v>410</v>
+      </c>
+      <c r="D149" t="s">
+        <v>411</v>
+      </c>
+      <c r="E149" t="s">
+        <v>479</v>
+      </c>
+      <c r="F149" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>412</v>
+      </c>
+      <c r="C150" t="s">
+        <v>413</v>
+      </c>
+      <c r="D150" t="s">
+        <v>415</v>
+      </c>
+      <c r="E150" t="s">
+        <v>480</v>
+      </c>
+      <c r="F150" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>412</v>
+      </c>
+      <c r="C151" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151" t="s">
+        <v>615</v>
+      </c>
+      <c r="E151" t="s">
+        <v>481</v>
+      </c>
+      <c r="F151" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>412</v>
+      </c>
+      <c r="C152" t="s">
+        <v>436</v>
+      </c>
+      <c r="D152" t="s">
+        <v>416</v>
+      </c>
+      <c r="E152" t="s">
+        <v>482</v>
+      </c>
+      <c r="F152" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>418</v>
+      </c>
+      <c r="C153" t="s">
+        <v>417</v>
+      </c>
+      <c r="D153" t="s">
+        <v>647</v>
+      </c>
+      <c r="E153" t="s">
+        <v>483</v>
+      </c>
+      <c r="F153" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>419</v>
+      </c>
+      <c r="C154" t="s">
+        <v>420</v>
+      </c>
+      <c r="D154" t="s">
+        <v>423</v>
+      </c>
+      <c r="E154" t="s">
+        <v>484</v>
+      </c>
+      <c r="F154" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>419</v>
+      </c>
+      <c r="C155" t="s">
+        <v>421</v>
+      </c>
+      <c r="D155" t="s">
+        <v>424</v>
+      </c>
+      <c r="E155" t="s">
+        <v>485</v>
+      </c>
+      <c r="F155" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>419</v>
+      </c>
+      <c r="C156" t="s">
+        <v>422</v>
+      </c>
+      <c r="D156" t="s">
+        <v>425</v>
+      </c>
+      <c r="E156" t="s">
+        <v>486</v>
+      </c>
+      <c r="F156" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>426</v>
+      </c>
+      <c r="C157" t="s">
+        <v>427</v>
+      </c>
+      <c r="D157" t="s">
+        <v>428</v>
+      </c>
+      <c r="E157" t="s">
+        <v>487</v>
+      </c>
+      <c r="F157" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>426</v>
+      </c>
+      <c r="C158" t="s">
+        <v>429</v>
+      </c>
+      <c r="D158" t="s">
+        <v>430</v>
+      </c>
+      <c r="E158" t="s">
+        <v>488</v>
+      </c>
+      <c r="F158" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>426</v>
+      </c>
+      <c r="C159" t="s">
+        <v>431</v>
+      </c>
+      <c r="D159" t="s">
+        <v>432</v>
+      </c>
+      <c r="E159" t="s">
+        <v>489</v>
+      </c>
+      <c r="F159" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>426</v>
+      </c>
+      <c r="C160" t="s">
+        <v>433</v>
+      </c>
+      <c r="D160" t="s">
+        <v>434</v>
+      </c>
+      <c r="E160" t="s">
+        <v>490</v>
+      </c>
+      <c r="F160" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>492</v>
+      </c>
+      <c r="C161" t="s">
+        <v>493</v>
+      </c>
+      <c r="D161" t="s">
+        <v>648</v>
+      </c>
+      <c r="E161" t="s">
+        <v>518</v>
+      </c>
+      <c r="F161" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>494</v>
+      </c>
+      <c r="C162" t="s">
+        <v>495</v>
+      </c>
+      <c r="D162" t="s">
+        <v>649</v>
+      </c>
+      <c r="E162" t="s">
+        <v>519</v>
+      </c>
+      <c r="F162" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>494</v>
+      </c>
+      <c r="C163" t="s">
+        <v>496</v>
+      </c>
+      <c r="D163" t="s">
+        <v>650</v>
+      </c>
+      <c r="E163" t="s">
+        <v>520</v>
+      </c>
+      <c r="F163" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>494</v>
+      </c>
+      <c r="C164" t="s">
+        <v>497</v>
+      </c>
+      <c r="D164" t="s">
+        <v>498</v>
+      </c>
+      <c r="E164" t="s">
+        <v>521</v>
+      </c>
+      <c r="F164" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>494</v>
+      </c>
+      <c r="C165" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165" t="s">
+        <v>500</v>
+      </c>
+      <c r="E165" t="s">
+        <v>522</v>
+      </c>
+      <c r="F165" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>494</v>
+      </c>
+      <c r="C166" t="s">
+        <v>501</v>
+      </c>
+      <c r="D166" t="s">
+        <v>502</v>
+      </c>
+      <c r="E166" t="s">
+        <v>523</v>
+      </c>
+      <c r="F166" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>503</v>
+      </c>
+      <c r="C167" t="s">
+        <v>504</v>
+      </c>
+      <c r="D167" t="s">
+        <v>651</v>
+      </c>
+      <c r="E167" t="s">
+        <v>524</v>
+      </c>
+      <c r="F167" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>503</v>
+      </c>
+      <c r="C168" t="s">
+        <v>505</v>
+      </c>
+      <c r="D168" t="s">
+        <v>652</v>
+      </c>
+      <c r="E168" t="s">
+        <v>525</v>
+      </c>
+      <c r="F168" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>506</v>
+      </c>
+      <c r="C169" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169" t="s">
+        <v>508</v>
+      </c>
+      <c r="E169" t="s">
+        <v>526</v>
+      </c>
+      <c r="F169" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>509</v>
+      </c>
+      <c r="C170" t="s">
+        <v>510</v>
+      </c>
+      <c r="D170" t="s">
+        <v>676</v>
+      </c>
+      <c r="E170" t="s">
+        <v>527</v>
+      </c>
+      <c r="F170" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>509</v>
+      </c>
+      <c r="C171" t="s">
+        <v>511</v>
+      </c>
+      <c r="D171" t="s">
+        <v>512</v>
+      </c>
+      <c r="E171" t="s">
+        <v>528</v>
+      </c>
+      <c r="F171" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>513</v>
+      </c>
+      <c r="C172" t="s">
+        <v>514</v>
+      </c>
+      <c r="D172" t="s">
+        <v>653</v>
+      </c>
+      <c r="E172" t="s">
+        <v>529</v>
+      </c>
+      <c r="F172" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>515</v>
+      </c>
+      <c r="C173" t="s">
+        <v>516</v>
+      </c>
+      <c r="D173" t="s">
+        <v>677</v>
+      </c>
+      <c r="E173" t="s">
+        <v>530</v>
+      </c>
+      <c r="F173" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>515</v>
+      </c>
+      <c r="C174" t="s">
+        <v>517</v>
+      </c>
+      <c r="D174" t="s">
+        <v>678</v>
+      </c>
+      <c r="E174" t="s">
+        <v>531</v>
+      </c>
+      <c r="F174" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>533</v>
+      </c>
+      <c r="C175" t="s">
+        <v>534</v>
+      </c>
+      <c r="D175" t="s">
+        <v>535</v>
+      </c>
+      <c r="E175" t="s">
+        <v>575</v>
+      </c>
+      <c r="F175" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>536</v>
+      </c>
+      <c r="C176" t="s">
+        <v>537</v>
+      </c>
+      <c r="D176" t="s">
+        <v>654</v>
+      </c>
+      <c r="E176" t="s">
+        <v>576</v>
+      </c>
+      <c r="F176" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>536</v>
+      </c>
+      <c r="C177" t="s">
+        <v>538</v>
+      </c>
+      <c r="D177" t="s">
+        <v>655</v>
+      </c>
+      <c r="E177" t="s">
+        <v>577</v>
+      </c>
+      <c r="F177" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>539</v>
+      </c>
+      <c r="C178" t="s">
+        <v>540</v>
+      </c>
+      <c r="D178" t="s">
+        <v>656</v>
+      </c>
+      <c r="E178" t="s">
+        <v>578</v>
+      </c>
+      <c r="F178" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>539</v>
+      </c>
+      <c r="C179" t="s">
+        <v>541</v>
+      </c>
+      <c r="D179" t="s">
+        <v>657</v>
+      </c>
+      <c r="E179" t="s">
+        <v>579</v>
+      </c>
+      <c r="F179" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>542</v>
+      </c>
+      <c r="C180" t="s">
+        <v>543</v>
+      </c>
+      <c r="D180" t="s">
+        <v>545</v>
+      </c>
+      <c r="E180" t="s">
+        <v>580</v>
+      </c>
+      <c r="F180" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>542</v>
+      </c>
+      <c r="C181" t="s">
+        <v>544</v>
+      </c>
+      <c r="D181" t="s">
+        <v>546</v>
+      </c>
+      <c r="E181" t="s">
+        <v>581</v>
+      </c>
+      <c r="F181" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>547</v>
+      </c>
+      <c r="C182" t="s">
+        <v>548</v>
+      </c>
+      <c r="D182" t="s">
+        <v>658</v>
+      </c>
+      <c r="E182" t="s">
+        <v>582</v>
+      </c>
+      <c r="F182" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>547</v>
+      </c>
+      <c r="C183" t="s">
+        <v>549</v>
+      </c>
+      <c r="D183" t="s">
+        <v>659</v>
+      </c>
+      <c r="E183" t="s">
+        <v>583</v>
+      </c>
+      <c r="F183" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>547</v>
+      </c>
+      <c r="C184" t="s">
+        <v>550</v>
+      </c>
+      <c r="D184" t="s">
+        <v>301</v>
+      </c>
+      <c r="E184" t="s">
+        <v>584</v>
+      </c>
+      <c r="F184" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>547</v>
+      </c>
+      <c r="C185" t="s">
+        <v>551</v>
+      </c>
+      <c r="D185" t="s">
+        <v>679</v>
+      </c>
+      <c r="E185" t="s">
+        <v>585</v>
+      </c>
+      <c r="F185" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>547</v>
+      </c>
+      <c r="C186" t="s">
+        <v>552</v>
+      </c>
+      <c r="D186" t="s">
+        <v>660</v>
+      </c>
+      <c r="E186" t="s">
+        <v>586</v>
+      </c>
+      <c r="F186" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>547</v>
+      </c>
+      <c r="C187" t="s">
+        <v>553</v>
+      </c>
+      <c r="D187" t="s">
+        <v>661</v>
+      </c>
+      <c r="E187" t="s">
+        <v>587</v>
+      </c>
+      <c r="F187" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>547</v>
+      </c>
+      <c r="C188" t="s">
+        <v>554</v>
+      </c>
+      <c r="D188" t="s">
+        <v>662</v>
+      </c>
+      <c r="E188" t="s">
+        <v>588</v>
+      </c>
+      <c r="F188" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>555</v>
+      </c>
+      <c r="C189" t="s">
+        <v>556</v>
+      </c>
+      <c r="D189" t="s">
+        <v>680</v>
+      </c>
+      <c r="E189" t="s">
+        <v>589</v>
+      </c>
+      <c r="F189" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>555</v>
+      </c>
+      <c r="C190" t="s">
+        <v>557</v>
+      </c>
+      <c r="D190" t="s">
+        <v>681</v>
+      </c>
+      <c r="E190" t="s">
+        <v>590</v>
+      </c>
+      <c r="F190" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>555</v>
+      </c>
+      <c r="C191" t="s">
+        <v>558</v>
+      </c>
+      <c r="D191" t="s">
+        <v>559</v>
+      </c>
+      <c r="E191" t="s">
+        <v>591</v>
+      </c>
+      <c r="F191" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>555</v>
+      </c>
+      <c r="C192" t="s">
+        <v>560</v>
+      </c>
+      <c r="D192" t="s">
+        <v>663</v>
+      </c>
+      <c r="E192" t="s">
+        <v>592</v>
+      </c>
+      <c r="F192" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>555</v>
+      </c>
+      <c r="C193" t="s">
+        <v>561</v>
+      </c>
+      <c r="D193" t="s">
+        <v>562</v>
+      </c>
+      <c r="E193" t="s">
+        <v>593</v>
+      </c>
+      <c r="F193" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>555</v>
+      </c>
+      <c r="C194" t="s">
+        <v>563</v>
+      </c>
+      <c r="D194" t="s">
+        <v>616</v>
+      </c>
+      <c r="E194" t="s">
+        <v>594</v>
+      </c>
+      <c r="F194" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>555</v>
+      </c>
+      <c r="C195" t="s">
+        <v>564</v>
+      </c>
+      <c r="D195" t="s">
+        <v>565</v>
+      </c>
+      <c r="E195" t="s">
+        <v>595</v>
+      </c>
+      <c r="F195" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>555</v>
+      </c>
+      <c r="C196" t="s">
+        <v>566</v>
+      </c>
+      <c r="D196" t="s">
+        <v>664</v>
+      </c>
+      <c r="E196" t="s">
+        <v>596</v>
+      </c>
+      <c r="F196" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>555</v>
+      </c>
+      <c r="C197" t="s">
+        <v>567</v>
+      </c>
+      <c r="D197" t="s">
+        <v>568</v>
+      </c>
+      <c r="E197" t="s">
+        <v>597</v>
+      </c>
+      <c r="F197" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>569</v>
+      </c>
+      <c r="C198" t="s">
+        <v>570</v>
+      </c>
+      <c r="D198" t="s">
+        <v>571</v>
+      </c>
+      <c r="E198" t="s">
+        <v>598</v>
+      </c>
+      <c r="F198" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>569</v>
+      </c>
+      <c r="C199" t="s">
+        <v>572</v>
+      </c>
+      <c r="D199" t="s">
+        <v>573</v>
+      </c>
+      <c r="E199" t="s">
+        <v>599</v>
+      </c>
+      <c r="F199" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>569</v>
+      </c>
+      <c r="C200" t="s">
+        <v>574</v>
+      </c>
+      <c r="D200" t="s">
+        <v>617</v>
+      </c>
+      <c r="E200" t="s">
+        <v>600</v>
+      </c>
+      <c r="F200" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/Tabela/data.xlsx
+++ b/Tabela/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1001" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="797">
   <si>
     <t>fam</t>
   </si>
@@ -2065,6 +2065,351 @@
   </si>
   <si>
     <t>progasti goz</t>
+  </si>
+  <si>
+    <t>salmonidae</t>
+  </si>
+  <si>
+    <t>salmo trutta</t>
+  </si>
+  <si>
+    <t>salmo marmoratus</t>
+  </si>
+  <si>
+    <t>huco huco</t>
+  </si>
+  <si>
+    <t>sulec</t>
+  </si>
+  <si>
+    <t>onchorhynchus mykiss</t>
+  </si>
+  <si>
+    <t>thymallidae</t>
+  </si>
+  <si>
+    <t>escoidae</t>
+  </si>
+  <si>
+    <t>esox lucius</t>
+  </si>
+  <si>
+    <t>thymallus thymallus</t>
+  </si>
+  <si>
+    <t>lipan</t>
+  </si>
+  <si>
+    <t>siluridae</t>
+  </si>
+  <si>
+    <t>silurus glanis</t>
+  </si>
+  <si>
+    <t>som</t>
+  </si>
+  <si>
+    <t>ictaluridae</t>
+  </si>
+  <si>
+    <t>amelurus melas</t>
+  </si>
+  <si>
+    <t>cyprinus carpio</t>
+  </si>
+  <si>
+    <t>krap</t>
+  </si>
+  <si>
+    <t>carassius carassius</t>
+  </si>
+  <si>
+    <t>koreselj</t>
+  </si>
+  <si>
+    <t>barbus barbus</t>
+  </si>
+  <si>
+    <t>mrena</t>
+  </si>
+  <si>
+    <t>gobio gobio</t>
+  </si>
+  <si>
+    <t>chondrostoma nasus</t>
+  </si>
+  <si>
+    <t>podust</t>
+  </si>
+  <si>
+    <t>vimba vimba</t>
+  </si>
+  <si>
+    <t>ogrica</t>
+  </si>
+  <si>
+    <t>abramis brama</t>
+  </si>
+  <si>
+    <t>alburnus alburnus</t>
+  </si>
+  <si>
+    <t>zelenika</t>
+  </si>
+  <si>
+    <t>alburnoides bipunctatus</t>
+  </si>
+  <si>
+    <t>pisanka</t>
+  </si>
+  <si>
+    <t>rhodeus sericerus</t>
+  </si>
+  <si>
+    <t>pezdirk</t>
+  </si>
+  <si>
+    <t>phoxinus phoxinus</t>
+  </si>
+  <si>
+    <t>pisanec</t>
+  </si>
+  <si>
+    <t>bolen</t>
+  </si>
+  <si>
+    <t>scardinius erythrophthalmus</t>
+  </si>
+  <si>
+    <t>rutilus rutilus</t>
+  </si>
+  <si>
+    <t>klen</t>
+  </si>
+  <si>
+    <t>200.jpg</t>
+  </si>
+  <si>
+    <t>201.jpg</t>
+  </si>
+  <si>
+    <t>202.jpg</t>
+  </si>
+  <si>
+    <t>203.jpg</t>
+  </si>
+  <si>
+    <t>205.jpg</t>
+  </si>
+  <si>
+    <t>206.jpg</t>
+  </si>
+  <si>
+    <t>208.jpg</t>
+  </si>
+  <si>
+    <t>209.jpg</t>
+  </si>
+  <si>
+    <t>210.jpg</t>
+  </si>
+  <si>
+    <t>211.jpg</t>
+  </si>
+  <si>
+    <t>213.jpg</t>
+  </si>
+  <si>
+    <t>214.jpg</t>
+  </si>
+  <si>
+    <t>215.jpg</t>
+  </si>
+  <si>
+    <t>216.jpg</t>
+  </si>
+  <si>
+    <t>217.jpg</t>
+  </si>
+  <si>
+    <t>218.jpg</t>
+  </si>
+  <si>
+    <t>219.jpg</t>
+  </si>
+  <si>
+    <t>220.jpg</t>
+  </si>
+  <si>
+    <t>221.jpg</t>
+  </si>
+  <si>
+    <t>222.jpg</t>
+  </si>
+  <si>
+    <t>223.jpg</t>
+  </si>
+  <si>
+    <t>224.jpg</t>
+  </si>
+  <si>
+    <t>225.jpg</t>
+  </si>
+  <si>
+    <t>squalius cephalus</t>
+  </si>
+  <si>
+    <t>cobitidae</t>
+  </si>
+  <si>
+    <t>misgumus fossilis</t>
+  </si>
+  <si>
+    <t>cobitis sp.</t>
+  </si>
+  <si>
+    <t>balitoridae</t>
+  </si>
+  <si>
+    <t>barbatula barbatula</t>
+  </si>
+  <si>
+    <t>babica</t>
+  </si>
+  <si>
+    <t>lota lota</t>
+  </si>
+  <si>
+    <t>menek</t>
+  </si>
+  <si>
+    <t>lotidae</t>
+  </si>
+  <si>
+    <t>poecilidae</t>
+  </si>
+  <si>
+    <t>gambusia affinis</t>
+  </si>
+  <si>
+    <t>gambuzija</t>
+  </si>
+  <si>
+    <t>gasterosteidae</t>
+  </si>
+  <si>
+    <t>gasterosteus aculeatus</t>
+  </si>
+  <si>
+    <t>zet</t>
+  </si>
+  <si>
+    <t>cottidae</t>
+  </si>
+  <si>
+    <t>cottus gobio</t>
+  </si>
+  <si>
+    <t>kapelj</t>
+  </si>
+  <si>
+    <t>percidae</t>
+  </si>
+  <si>
+    <t>perca fluviatilli</t>
+  </si>
+  <si>
+    <t>sander lucioperca</t>
+  </si>
+  <si>
+    <t>centrarchidae</t>
+  </si>
+  <si>
+    <t>lepomis gibbosus</t>
+  </si>
+  <si>
+    <t>227.jpg</t>
+  </si>
+  <si>
+    <t>228.jpg</t>
+  </si>
+  <si>
+    <t>229.jpg</t>
+  </si>
+  <si>
+    <t>230.jpg</t>
+  </si>
+  <si>
+    <t>231.jpg</t>
+  </si>
+  <si>
+    <t>232.jpg</t>
+  </si>
+  <si>
+    <t>233.jpg</t>
+  </si>
+  <si>
+    <t>234.jpg</t>
+  </si>
+  <si>
+    <t>235.jpg</t>
+  </si>
+  <si>
+    <t>236.jpg</t>
+  </si>
+  <si>
+    <t>gymnocephalus schraetzer</t>
+  </si>
+  <si>
+    <t>237.jpg</t>
+  </si>
+  <si>
+    <t>leuciscus aspius</t>
+  </si>
+  <si>
+    <t>soska postrv</t>
+  </si>
+  <si>
+    <t>sarenka</t>
+  </si>
+  <si>
+    <t>nezica</t>
+  </si>
+  <si>
+    <t>ostriz</t>
+  </si>
+  <si>
+    <t>smrkez</t>
+  </si>
+  <si>
+    <t>potocna postrv</t>
+  </si>
+  <si>
+    <t>scuka</t>
+  </si>
+  <si>
+    <t>crni ameriski somic</t>
+  </si>
+  <si>
+    <t>globocek</t>
+  </si>
+  <si>
+    <t>ploscic</t>
+  </si>
+  <si>
+    <t>rdeceperka</t>
+  </si>
+  <si>
+    <t>rdeceoka</t>
+  </si>
+  <si>
+    <t>cinklja</t>
+  </si>
+  <si>
+    <t>smuc</t>
+  </si>
+  <si>
+    <t>soncni ostriz</t>
   </si>
 </sst>
 </file>
@@ -2382,10 +2727,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
+      <selection activeCell="I210" sqref="I210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6395,6 +6740,686 @@
         <v>532</v>
       </c>
     </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>682</v>
+      </c>
+      <c r="C201" t="s">
+        <v>683</v>
+      </c>
+      <c r="D201" t="s">
+        <v>787</v>
+      </c>
+      <c r="E201" t="s">
+        <v>722</v>
+      </c>
+      <c r="F201" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>682</v>
+      </c>
+      <c r="C202" t="s">
+        <v>684</v>
+      </c>
+      <c r="D202" t="s">
+        <v>782</v>
+      </c>
+      <c r="E202" t="s">
+        <v>723</v>
+      </c>
+      <c r="F202" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>682</v>
+      </c>
+      <c r="C203" t="s">
+        <v>685</v>
+      </c>
+      <c r="D203" t="s">
+        <v>686</v>
+      </c>
+      <c r="E203" t="s">
+        <v>724</v>
+      </c>
+      <c r="F203" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>682</v>
+      </c>
+      <c r="C204" t="s">
+        <v>687</v>
+      </c>
+      <c r="D204" t="s">
+        <v>783</v>
+      </c>
+      <c r="E204" t="s">
+        <v>725</v>
+      </c>
+      <c r="F204" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>205</v>
+      </c>
+      <c r="B205" t="s">
+        <v>688</v>
+      </c>
+      <c r="C205" t="s">
+        <v>691</v>
+      </c>
+      <c r="D205" t="s">
+        <v>692</v>
+      </c>
+      <c r="E205" t="s">
+        <v>726</v>
+      </c>
+      <c r="F205" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>206</v>
+      </c>
+      <c r="B206" t="s">
+        <v>689</v>
+      </c>
+      <c r="C206" t="s">
+        <v>690</v>
+      </c>
+      <c r="D206" t="s">
+        <v>788</v>
+      </c>
+      <c r="E206" t="s">
+        <v>727</v>
+      </c>
+      <c r="F206" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>208</v>
+      </c>
+      <c r="B207" t="s">
+        <v>693</v>
+      </c>
+      <c r="C207" t="s">
+        <v>694</v>
+      </c>
+      <c r="D207" t="s">
+        <v>695</v>
+      </c>
+      <c r="E207" t="s">
+        <v>728</v>
+      </c>
+      <c r="F207" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>209</v>
+      </c>
+      <c r="B208" t="s">
+        <v>696</v>
+      </c>
+      <c r="C208" t="s">
+        <v>697</v>
+      </c>
+      <c r="D208" t="s">
+        <v>789</v>
+      </c>
+      <c r="E208" t="s">
+        <v>729</v>
+      </c>
+      <c r="F208" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>210</v>
+      </c>
+      <c r="B209" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" t="s">
+        <v>698</v>
+      </c>
+      <c r="D209" t="s">
+        <v>699</v>
+      </c>
+      <c r="E209" t="s">
+        <v>730</v>
+      </c>
+      <c r="F209" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>211</v>
+      </c>
+      <c r="B210" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" t="s">
+        <v>700</v>
+      </c>
+      <c r="D210" t="s">
+        <v>701</v>
+      </c>
+      <c r="E210" t="s">
+        <v>731</v>
+      </c>
+      <c r="F210" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>213</v>
+      </c>
+      <c r="B211" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" t="s">
+        <v>702</v>
+      </c>
+      <c r="D211" t="s">
+        <v>703</v>
+      </c>
+      <c r="E211" t="s">
+        <v>732</v>
+      </c>
+      <c r="F211" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>214</v>
+      </c>
+      <c r="B212" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" t="s">
+        <v>704</v>
+      </c>
+      <c r="D212" t="s">
+        <v>790</v>
+      </c>
+      <c r="E212" t="s">
+        <v>733</v>
+      </c>
+      <c r="F212" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>215</v>
+      </c>
+      <c r="B213" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" t="s">
+        <v>705</v>
+      </c>
+      <c r="D213" t="s">
+        <v>706</v>
+      </c>
+      <c r="E213" t="s">
+        <v>734</v>
+      </c>
+      <c r="F213" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>216</v>
+      </c>
+      <c r="B214" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" t="s">
+        <v>707</v>
+      </c>
+      <c r="D214" t="s">
+        <v>708</v>
+      </c>
+      <c r="E214" t="s">
+        <v>735</v>
+      </c>
+      <c r="F214" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>217</v>
+      </c>
+      <c r="B215" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" t="s">
+        <v>709</v>
+      </c>
+      <c r="D215" t="s">
+        <v>791</v>
+      </c>
+      <c r="E215" t="s">
+        <v>736</v>
+      </c>
+      <c r="F215" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>218</v>
+      </c>
+      <c r="B216" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" t="s">
+        <v>710</v>
+      </c>
+      <c r="D216" t="s">
+        <v>711</v>
+      </c>
+      <c r="E216" t="s">
+        <v>737</v>
+      </c>
+      <c r="F216" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>219</v>
+      </c>
+      <c r="B217" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" t="s">
+        <v>712</v>
+      </c>
+      <c r="D217" t="s">
+        <v>713</v>
+      </c>
+      <c r="E217" t="s">
+        <v>738</v>
+      </c>
+      <c r="F217" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>220</v>
+      </c>
+      <c r="B218" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" t="s">
+        <v>714</v>
+      </c>
+      <c r="D218" t="s">
+        <v>715</v>
+      </c>
+      <c r="E218" t="s">
+        <v>739</v>
+      </c>
+      <c r="F218" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>221</v>
+      </c>
+      <c r="B219" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" t="s">
+        <v>716</v>
+      </c>
+      <c r="D219" t="s">
+        <v>717</v>
+      </c>
+      <c r="E219" t="s">
+        <v>740</v>
+      </c>
+      <c r="F219" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>222</v>
+      </c>
+      <c r="B220" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" t="s">
+        <v>781</v>
+      </c>
+      <c r="D220" t="s">
+        <v>718</v>
+      </c>
+      <c r="E220" t="s">
+        <v>741</v>
+      </c>
+      <c r="F220" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>223</v>
+      </c>
+      <c r="B221" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" t="s">
+        <v>719</v>
+      </c>
+      <c r="D221" t="s">
+        <v>792</v>
+      </c>
+      <c r="E221" t="s">
+        <v>742</v>
+      </c>
+      <c r="F221" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>224</v>
+      </c>
+      <c r="B222" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" t="s">
+        <v>720</v>
+      </c>
+      <c r="D222" t="s">
+        <v>793</v>
+      </c>
+      <c r="E222" t="s">
+        <v>743</v>
+      </c>
+      <c r="F222" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>225</v>
+      </c>
+      <c r="B223" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" t="s">
+        <v>745</v>
+      </c>
+      <c r="D223" t="s">
+        <v>721</v>
+      </c>
+      <c r="E223" t="s">
+        <v>744</v>
+      </c>
+      <c r="F223" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>227</v>
+      </c>
+      <c r="B224" t="s">
+        <v>746</v>
+      </c>
+      <c r="C224" t="s">
+        <v>747</v>
+      </c>
+      <c r="D224" t="s">
+        <v>794</v>
+      </c>
+      <c r="E224" t="s">
+        <v>769</v>
+      </c>
+      <c r="F224" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>228</v>
+      </c>
+      <c r="B225" t="s">
+        <v>746</v>
+      </c>
+      <c r="C225" t="s">
+        <v>748</v>
+      </c>
+      <c r="D225" t="s">
+        <v>784</v>
+      </c>
+      <c r="E225" t="s">
+        <v>770</v>
+      </c>
+      <c r="F225" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>229</v>
+      </c>
+      <c r="B226" t="s">
+        <v>749</v>
+      </c>
+      <c r="C226" t="s">
+        <v>750</v>
+      </c>
+      <c r="D226" t="s">
+        <v>751</v>
+      </c>
+      <c r="E226" t="s">
+        <v>771</v>
+      </c>
+      <c r="F226" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>230</v>
+      </c>
+      <c r="B227" t="s">
+        <v>754</v>
+      </c>
+      <c r="C227" t="s">
+        <v>752</v>
+      </c>
+      <c r="D227" t="s">
+        <v>753</v>
+      </c>
+      <c r="E227" t="s">
+        <v>772</v>
+      </c>
+      <c r="F227" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>231</v>
+      </c>
+      <c r="B228" t="s">
+        <v>755</v>
+      </c>
+      <c r="C228" t="s">
+        <v>756</v>
+      </c>
+      <c r="D228" t="s">
+        <v>757</v>
+      </c>
+      <c r="E228" t="s">
+        <v>773</v>
+      </c>
+      <c r="F228" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>232</v>
+      </c>
+      <c r="B229" t="s">
+        <v>758</v>
+      </c>
+      <c r="C229" t="s">
+        <v>759</v>
+      </c>
+      <c r="D229" t="s">
+        <v>760</v>
+      </c>
+      <c r="E229" t="s">
+        <v>774</v>
+      </c>
+      <c r="F229" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>233</v>
+      </c>
+      <c r="B230" t="s">
+        <v>761</v>
+      </c>
+      <c r="C230" t="s">
+        <v>762</v>
+      </c>
+      <c r="D230" t="s">
+        <v>763</v>
+      </c>
+      <c r="E230" t="s">
+        <v>775</v>
+      </c>
+      <c r="F230" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>234</v>
+      </c>
+      <c r="B231" t="s">
+        <v>764</v>
+      </c>
+      <c r="C231" t="s">
+        <v>765</v>
+      </c>
+      <c r="D231" t="s">
+        <v>785</v>
+      </c>
+      <c r="E231" t="s">
+        <v>776</v>
+      </c>
+      <c r="F231" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>235</v>
+      </c>
+      <c r="B232" t="s">
+        <v>764</v>
+      </c>
+      <c r="C232" t="s">
+        <v>766</v>
+      </c>
+      <c r="D232" t="s">
+        <v>795</v>
+      </c>
+      <c r="E232" t="s">
+        <v>777</v>
+      </c>
+      <c r="F232" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>236</v>
+      </c>
+      <c r="B233" t="s">
+        <v>767</v>
+      </c>
+      <c r="C233" t="s">
+        <v>768</v>
+      </c>
+      <c r="D233" t="s">
+        <v>796</v>
+      </c>
+      <c r="E233" t="s">
+        <v>778</v>
+      </c>
+      <c r="F233" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>237</v>
+      </c>
+      <c r="B234" t="s">
+        <v>764</v>
+      </c>
+      <c r="C234" t="s">
+        <v>779</v>
+      </c>
+      <c r="D234" t="s">
+        <v>786</v>
+      </c>
+      <c r="E234" t="s">
+        <v>780</v>
+      </c>
+      <c r="F234" t="s">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela/data.xlsx
+++ b/Tabela/data.xlsx
@@ -600,9 +600,6 @@
     <t>61.jpg</t>
   </si>
   <si>
-    <t>riparia ripaira</t>
-  </si>
-  <si>
     <t>bregulka</t>
   </si>
   <si>
@@ -1053,15 +1050,9 @@
     <t>erinaceus europaeus</t>
   </si>
   <si>
-    <t>avricolidae</t>
-  </si>
-  <si>
     <t>arvicola terrestris</t>
   </si>
   <si>
-    <t>veliki voluhar</t>
-  </si>
-  <si>
     <t>clethrionomys glareolus</t>
   </si>
   <si>
@@ -1326,9 +1317,6 @@
     <t>tur</t>
   </si>
   <si>
-    <t>soerx araneus</t>
-  </si>
-  <si>
     <t>vulpes vulpes</t>
   </si>
   <si>
@@ -1506,9 +1494,6 @@
     <t>salamandridae</t>
   </si>
   <si>
-    <t>salamandra alamanadra</t>
-  </si>
-  <si>
     <t>salamandra atra</t>
   </si>
   <si>
@@ -1554,9 +1539,6 @@
     <t>bombina bombina</t>
   </si>
   <si>
-    <t>bombina veriegata</t>
-  </si>
-  <si>
     <t>hribski urh</t>
   </si>
   <si>
@@ -1695,18 +1677,12 @@
     <t>elaphe quatuorlineata</t>
   </si>
   <si>
-    <t>cornella austriaca</t>
-  </si>
-  <si>
     <t>smokulja</t>
   </si>
   <si>
     <t>coluber viridiflavus</t>
   </si>
   <si>
-    <t>columber gemonensis</t>
-  </si>
-  <si>
     <t>belica</t>
   </si>
   <si>
@@ -1929,18 +1905,12 @@
     <t>meniscek</t>
   </si>
   <si>
-    <t>copatasta sinica</t>
-  </si>
-  <si>
     <t>kratkoprsti plezalcek</t>
   </si>
   <si>
     <t>domaci vrabec</t>
   </si>
   <si>
-    <t>scinkovec</t>
-  </si>
-  <si>
     <t>liscek</t>
   </si>
   <si>
@@ -2040,9 +2010,6 @@
     <t>beloprsi jez</t>
   </si>
   <si>
-    <t>rjavopsri jez</t>
-  </si>
-  <si>
     <t>snezna voluharica</t>
   </si>
   <si>
@@ -2082,15 +2049,9 @@
     <t>sulec</t>
   </si>
   <si>
-    <t>onchorhynchus mykiss</t>
-  </si>
-  <si>
     <t>thymallidae</t>
   </si>
   <si>
-    <t>escoidae</t>
-  </si>
-  <si>
     <t>esox lucius</t>
   </si>
   <si>
@@ -2112,9 +2073,6 @@
     <t>ictaluridae</t>
   </si>
   <si>
-    <t>amelurus melas</t>
-  </si>
-  <si>
     <t>cyprinus carpio</t>
   </si>
   <si>
@@ -2163,9 +2121,6 @@
     <t>pisanka</t>
   </si>
   <si>
-    <t>rhodeus sericerus</t>
-  </si>
-  <si>
     <t>pezdirk</t>
   </si>
   <si>
@@ -2262,9 +2217,6 @@
     <t>cobitidae</t>
   </si>
   <si>
-    <t>misgumus fossilis</t>
-  </si>
-  <si>
     <t>cobitis sp.</t>
   </si>
   <si>
@@ -2410,6 +2362,54 @@
   </si>
   <si>
     <t>soncni ostriz</t>
+  </si>
+  <si>
+    <t>riparia riparia</t>
+  </si>
+  <si>
+    <t>copasta sinica</t>
+  </si>
+  <si>
+    <t>scinkavec</t>
+  </si>
+  <si>
+    <t>sorex araneus</t>
+  </si>
+  <si>
+    <t>rjavoprsi jez</t>
+  </si>
+  <si>
+    <t>arvicolidae</t>
+  </si>
+  <si>
+    <t>velika voluharica</t>
+  </si>
+  <si>
+    <t>salamandra salamandra</t>
+  </si>
+  <si>
+    <t>bombina variegata</t>
+  </si>
+  <si>
+    <t>coronella austriaca</t>
+  </si>
+  <si>
+    <t>coluber gemonensis</t>
+  </si>
+  <si>
+    <t>oncorhynchus mykiss</t>
+  </si>
+  <si>
+    <t>esocidae</t>
+  </si>
+  <si>
+    <t>ameiurus melas</t>
+  </si>
+  <si>
+    <t>rhodeus sericeus</t>
+  </si>
+  <si>
+    <t>misgurnus fossilis</t>
   </si>
 </sst>
 </file>
@@ -2729,8 +2729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A197" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2742,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -2777,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2817,7 +2817,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2831,13 +2831,13 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2857,7 +2857,7 @@
         <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2877,7 +2877,7 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2891,13 +2891,13 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2911,13 +2911,13 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,13 +2931,13 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="E10" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,13 +2951,13 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E11" t="s">
         <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2971,13 +2971,13 @@
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2997,7 +2997,7 @@
         <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3017,7 +3017,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3031,13 +3031,13 @@
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
       </c>
       <c r="F15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3071,13 +3071,13 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3097,7 +3097,7 @@
         <v>54</v>
       </c>
       <c r="F18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3117,7 +3117,7 @@
         <v>56</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3137,7 +3137,7 @@
         <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3177,7 +3177,7 @@
         <v>67</v>
       </c>
       <c r="F22" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3197,7 +3197,7 @@
         <v>70</v>
       </c>
       <c r="F23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3217,7 +3217,7 @@
         <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -3237,7 +3237,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3257,7 +3257,7 @@
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3277,7 +3277,7 @@
         <v>84</v>
       </c>
       <c r="F27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3297,7 +3297,7 @@
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3317,7 +3317,7 @@
         <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3337,7 +3337,7 @@
         <v>94</v>
       </c>
       <c r="F30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3351,13 +3351,13 @@
         <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="E31" t="s">
         <v>96</v>
       </c>
       <c r="F31" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -3377,7 +3377,7 @@
         <v>99</v>
       </c>
       <c r="F32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -3397,7 +3397,7 @@
         <v>103</v>
       </c>
       <c r="F33" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -3417,7 +3417,7 @@
         <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3437,7 +3437,7 @@
         <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -3451,13 +3451,13 @@
         <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="E36" t="s">
         <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3477,7 +3477,7 @@
         <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,7 +3497,7 @@
         <v>119</v>
       </c>
       <c r="F38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3511,13 +3511,13 @@
         <v>120</v>
       </c>
       <c r="D39" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E39" t="s">
         <v>121</v>
       </c>
       <c r="F39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3537,7 +3537,7 @@
         <v>124</v>
       </c>
       <c r="F40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3557,7 +3557,7 @@
         <v>128</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3571,13 +3571,13 @@
         <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="E42" t="s">
         <v>130</v>
       </c>
       <c r="F42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3591,13 +3591,13 @@
         <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="E43" t="s">
         <v>133</v>
       </c>
       <c r="F43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3617,7 +3617,7 @@
         <v>137</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
         <v>141</v>
       </c>
       <c r="F45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3657,7 +3657,7 @@
         <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3671,13 +3671,13 @@
         <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="E47" t="s">
         <v>146</v>
       </c>
       <c r="F47" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3697,7 +3697,7 @@
         <v>150</v>
       </c>
       <c r="F48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -3717,7 +3717,7 @@
         <v>153</v>
       </c>
       <c r="F49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -3737,7 +3737,7 @@
         <v>156</v>
       </c>
       <c r="F50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -3751,13 +3751,13 @@
         <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="E51" t="s">
         <v>158</v>
       </c>
       <c r="F51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,7 +3777,7 @@
         <v>162</v>
       </c>
       <c r="F52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v>166</v>
       </c>
       <c r="F53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -3817,7 +3817,7 @@
         <v>170</v>
       </c>
       <c r="F54" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>173</v>
       </c>
       <c r="F55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -3857,7 +3857,7 @@
         <v>178</v>
       </c>
       <c r="F56" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -3871,13 +3871,13 @@
         <v>179</v>
       </c>
       <c r="D57" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="E57" t="s">
         <v>180</v>
       </c>
       <c r="F57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -3891,13 +3891,13 @@
         <v>181</v>
       </c>
       <c r="D58" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="E58" t="s">
         <v>182</v>
       </c>
       <c r="F58" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -3911,13 +3911,13 @@
         <v>183</v>
       </c>
       <c r="D59" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E59" t="s">
         <v>184</v>
       </c>
       <c r="F59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -3931,13 +3931,13 @@
         <v>186</v>
       </c>
       <c r="D60" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E60" t="s">
         <v>187</v>
       </c>
       <c r="F60" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -3951,13 +3951,13 @@
         <v>189</v>
       </c>
       <c r="D61" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="E61" t="s">
         <v>190</v>
       </c>
       <c r="F61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D62" t="s">
         <v>191</v>
@@ -3977,7 +3977,7 @@
         <v>192</v>
       </c>
       <c r="F62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,16 +3988,16 @@
         <v>188</v>
       </c>
       <c r="C63" t="s">
+        <v>781</v>
+      </c>
+      <c r="D63" t="s">
         <v>193</v>
       </c>
-      <c r="D63" t="s">
+      <c r="E63" t="s">
         <v>194</v>
       </c>
-      <c r="E63" t="s">
-        <v>195</v>
-      </c>
       <c r="F63" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -4005,19 +4005,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
+        <v>196</v>
+      </c>
+      <c r="C64" t="s">
         <v>197</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>198</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>199</v>
       </c>
-      <c r="E64" t="s">
-        <v>200</v>
-      </c>
       <c r="F64" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -4025,19 +4025,19 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
+        <v>200</v>
+      </c>
+      <c r="D65" t="s">
         <v>201</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>202</v>
       </c>
-      <c r="E65" t="s">
-        <v>203</v>
-      </c>
       <c r="F65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -4045,19 +4045,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
+        <v>203</v>
+      </c>
+      <c r="C66" t="s">
         <v>204</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
+        <v>660</v>
+      </c>
+      <c r="E66" t="s">
         <v>205</v>
       </c>
-      <c r="D66" t="s">
-        <v>670</v>
-      </c>
-      <c r="E66" t="s">
-        <v>206</v>
-      </c>
       <c r="F66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -4065,19 +4065,19 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" t="s">
         <v>207</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>208</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>209</v>
       </c>
-      <c r="E67" t="s">
-        <v>210</v>
-      </c>
       <c r="F67" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,19 +4085,19 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
+        <v>210</v>
+      </c>
+      <c r="D68" t="s">
         <v>211</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E68" t="s">
         <v>212</v>
       </c>
-      <c r="E68" t="s">
-        <v>213</v>
-      </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -4105,19 +4105,19 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C69" t="s">
+        <v>213</v>
+      </c>
+      <c r="D69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E69" t="s">
         <v>214</v>
       </c>
-      <c r="D69" t="s">
-        <v>216</v>
-      </c>
-      <c r="E69" t="s">
-        <v>215</v>
-      </c>
       <c r="F69" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -4125,19 +4125,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D70" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="E70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F70" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -4145,19 +4145,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" t="s">
+        <v>598</v>
+      </c>
+      <c r="E71" t="s">
         <v>218</v>
       </c>
-      <c r="D71" t="s">
-        <v>606</v>
-      </c>
-      <c r="E71" t="s">
-        <v>219</v>
-      </c>
       <c r="F71" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -4165,19 +4165,19 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
+        <v>219</v>
+      </c>
+      <c r="D72" t="s">
         <v>220</v>
       </c>
-      <c r="D72" t="s">
+      <c r="E72" t="s">
         <v>221</v>
       </c>
-      <c r="E72" t="s">
-        <v>222</v>
-      </c>
       <c r="F72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -4185,19 +4185,19 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C73" t="s">
+        <v>222</v>
+      </c>
+      <c r="D73" t="s">
+        <v>621</v>
+      </c>
+      <c r="E73" t="s">
         <v>223</v>
       </c>
-      <c r="D73" t="s">
-        <v>629</v>
-      </c>
-      <c r="E73" t="s">
-        <v>224</v>
-      </c>
       <c r="F73" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -4205,19 +4205,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" t="s">
         <v>226</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
+        <v>622</v>
+      </c>
+      <c r="E74" t="s">
         <v>227</v>
       </c>
-      <c r="D74" t="s">
-        <v>630</v>
-      </c>
-      <c r="E74" t="s">
-        <v>228</v>
-      </c>
       <c r="F74" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,19 +4225,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" t="s">
         <v>229</v>
       </c>
-      <c r="D75" t="s">
+      <c r="E75" t="s">
         <v>230</v>
       </c>
-      <c r="E75" t="s">
-        <v>231</v>
-      </c>
       <c r="F75" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -4245,19 +4245,19 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C76" t="s">
+        <v>231</v>
+      </c>
+      <c r="D76" t="s">
+        <v>623</v>
+      </c>
+      <c r="E76" t="s">
         <v>232</v>
       </c>
-      <c r="D76" t="s">
-        <v>631</v>
-      </c>
-      <c r="E76" t="s">
-        <v>233</v>
-      </c>
       <c r="F76" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,19 +4265,19 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" t="s">
+        <v>624</v>
+      </c>
+      <c r="E77" t="s">
         <v>234</v>
       </c>
-      <c r="D77" t="s">
-        <v>632</v>
-      </c>
-      <c r="E77" t="s">
-        <v>235</v>
-      </c>
       <c r="F77" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -4285,19 +4285,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C78" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" t="s">
+        <v>625</v>
+      </c>
+      <c r="E78" t="s">
         <v>236</v>
       </c>
-      <c r="D78" t="s">
-        <v>633</v>
-      </c>
-      <c r="E78" t="s">
-        <v>237</v>
-      </c>
       <c r="F78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -4305,19 +4305,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
         <v>238</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>239</v>
       </c>
-      <c r="D79" t="s">
+      <c r="E79" t="s">
         <v>240</v>
       </c>
-      <c r="E79" t="s">
-        <v>241</v>
-      </c>
       <c r="F79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,19 +4325,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
+        <v>241</v>
+      </c>
+      <c r="C80" t="s">
         <v>242</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>243</v>
       </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
         <v>244</v>
       </c>
-      <c r="E80" t="s">
-        <v>245</v>
-      </c>
       <c r="F80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,19 +4345,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C81" t="s">
+        <v>245</v>
+      </c>
+      <c r="D81" t="s">
+        <v>626</v>
+      </c>
+      <c r="E81" t="s">
         <v>246</v>
       </c>
-      <c r="D81" t="s">
-        <v>634</v>
-      </c>
-      <c r="E81" t="s">
-        <v>247</v>
-      </c>
       <c r="F81" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,19 +4365,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
+        <v>247</v>
+      </c>
+      <c r="D82" t="s">
+        <v>627</v>
+      </c>
+      <c r="E82" t="s">
         <v>248</v>
       </c>
-      <c r="D82" t="s">
-        <v>635</v>
-      </c>
-      <c r="E82" t="s">
-        <v>249</v>
-      </c>
       <c r="F82" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,19 +4385,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C83" t="s">
+        <v>249</v>
+      </c>
+      <c r="D83" t="s">
+        <v>782</v>
+      </c>
+      <c r="E83" t="s">
         <v>250</v>
       </c>
-      <c r="D83" t="s">
-        <v>636</v>
-      </c>
-      <c r="E83" t="s">
-        <v>251</v>
-      </c>
       <c r="F83" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -4405,19 +4405,19 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
+        <v>251</v>
+      </c>
+      <c r="C84" t="s">
         <v>252</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>253</v>
       </c>
-      <c r="D84" t="s">
+      <c r="E84" t="s">
         <v>254</v>
       </c>
-      <c r="E84" t="s">
-        <v>255</v>
-      </c>
       <c r="F84" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -4425,19 +4425,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
+        <v>255</v>
+      </c>
+      <c r="C85" t="s">
         <v>256</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>257</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E85" t="s">
         <v>258</v>
       </c>
-      <c r="E85" t="s">
-        <v>259</v>
-      </c>
       <c r="F85" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,19 +4445,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
+        <v>259</v>
+      </c>
+      <c r="C86" t="s">
         <v>260</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
+        <v>628</v>
+      </c>
+      <c r="E86" t="s">
         <v>261</v>
       </c>
-      <c r="D86" t="s">
-        <v>637</v>
-      </c>
-      <c r="E86" t="s">
-        <v>262</v>
-      </c>
       <c r="F86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -4465,19 +4465,19 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C87" t="s">
         <v>263</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>264</v>
       </c>
-      <c r="D87" t="s">
+      <c r="E87" t="s">
         <v>265</v>
       </c>
-      <c r="E87" t="s">
-        <v>266</v>
-      </c>
       <c r="F87" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -4485,19 +4485,19 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
+        <v>266</v>
+      </c>
+      <c r="C88" t="s">
         <v>267</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>268</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>269</v>
       </c>
-      <c r="E88" t="s">
-        <v>270</v>
-      </c>
       <c r="F88" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,19 +4505,19 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" t="s">
+        <v>274</v>
+      </c>
+      <c r="E89" t="s">
         <v>273</v>
       </c>
-      <c r="D89" t="s">
-        <v>275</v>
-      </c>
-      <c r="E89" t="s">
-        <v>274</v>
-      </c>
       <c r="F89" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,19 +4525,19 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
+        <v>275</v>
+      </c>
+      <c r="D90" t="s">
         <v>276</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>277</v>
       </c>
-      <c r="E90" t="s">
-        <v>278</v>
-      </c>
       <c r="F90" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -4545,19 +4545,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>270</v>
+      </c>
+      <c r="C91" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" t="s">
         <v>271</v>
       </c>
-      <c r="C91" t="s">
+      <c r="E91" t="s">
         <v>279</v>
       </c>
-      <c r="D91" t="s">
-        <v>272</v>
-      </c>
-      <c r="E91" t="s">
-        <v>280</v>
-      </c>
       <c r="F91" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -4565,19 +4565,19 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
         <v>281</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E92" t="s">
         <v>282</v>
       </c>
-      <c r="E92" t="s">
-        <v>283</v>
-      </c>
       <c r="F92" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -4585,19 +4585,19 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C93" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" t="s">
+        <v>599</v>
+      </c>
+      <c r="E93" t="s">
         <v>284</v>
       </c>
-      <c r="D93" t="s">
-        <v>607</v>
-      </c>
-      <c r="E93" t="s">
-        <v>285</v>
-      </c>
       <c r="F93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -4605,19 +4605,19 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C94" t="s">
+        <v>285</v>
+      </c>
+      <c r="D94" t="s">
         <v>286</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>287</v>
       </c>
-      <c r="E94" t="s">
-        <v>288</v>
-      </c>
       <c r="F94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -4625,19 +4625,19 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" t="s">
         <v>289</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
+        <v>600</v>
+      </c>
+      <c r="E95" t="s">
         <v>290</v>
       </c>
-      <c r="D95" t="s">
-        <v>608</v>
-      </c>
-      <c r="E95" t="s">
-        <v>291</v>
-      </c>
       <c r="F95" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -4645,19 +4645,19 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
+        <v>291</v>
+      </c>
+      <c r="C96" t="s">
         <v>292</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
+        <v>629</v>
+      </c>
+      <c r="E96" t="s">
         <v>293</v>
       </c>
-      <c r="D96" t="s">
-        <v>638</v>
-      </c>
-      <c r="E96" t="s">
-        <v>294</v>
-      </c>
       <c r="F96" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -4665,19 +4665,19 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C97" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" t="s">
         <v>295</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" t="s">
         <v>296</v>
       </c>
-      <c r="E97" t="s">
-        <v>297</v>
-      </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -4685,19 +4685,19 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" t="s">
         <v>298</v>
       </c>
-      <c r="C98" t="s">
-        <v>299</v>
-      </c>
       <c r="D98" t="s">
-        <v>639</v>
+        <v>783</v>
       </c>
       <c r="E98" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -4705,19 +4705,19 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C99" t="s">
+        <v>299</v>
+      </c>
+      <c r="D99" t="s">
         <v>300</v>
       </c>
-      <c r="D99" t="s">
-        <v>301</v>
-      </c>
       <c r="E99" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F99" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -4725,19 +4725,19 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D100" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="E100" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F100" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -4745,19 +4745,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D101" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="E101" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,19 +4765,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C102" t="s">
+        <v>303</v>
+      </c>
+      <c r="D102" t="s">
         <v>304</v>
       </c>
-      <c r="D102" t="s">
-        <v>305</v>
-      </c>
       <c r="E102" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F102" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -4785,19 +4785,19 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C103" t="s">
+        <v>305</v>
+      </c>
+      <c r="D103" t="s">
         <v>306</v>
       </c>
-      <c r="D103" t="s">
-        <v>307</v>
-      </c>
       <c r="E103" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F103" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -4805,19 +4805,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C104" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D104" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="E104" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -4825,19 +4825,19 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C105" t="s">
+        <v>308</v>
+      </c>
+      <c r="D105" t="s">
         <v>309</v>
       </c>
-      <c r="D105" t="s">
-        <v>310</v>
-      </c>
       <c r="E105" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F105" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -4845,19 +4845,19 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" t="s">
         <v>311</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>312</v>
       </c>
-      <c r="D106" t="s">
-        <v>313</v>
-      </c>
       <c r="E106" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F106" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -4865,19 +4865,19 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
+        <v>327</v>
+      </c>
+      <c r="C107" t="s">
         <v>328</v>
       </c>
-      <c r="C107" t="s">
-        <v>329</v>
-      </c>
       <c r="D107" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="E107" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F107" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -4885,19 +4885,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C108" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D108" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E108" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F108" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -4905,19 +4905,19 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D109" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="E109" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F109" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,19 +4925,19 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C110" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D110" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E110" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F110" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -4945,19 +4945,19 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C111" t="s">
-        <v>435</v>
+        <v>784</v>
       </c>
       <c r="D111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E111" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -4965,19 +4965,19 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C112" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D112" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E112" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -4985,19 +4985,19 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
+        <v>337</v>
+      </c>
+      <c r="C113" t="s">
         <v>338</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>339</v>
       </c>
-      <c r="D113" t="s">
-        <v>340</v>
-      </c>
       <c r="E113" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F113" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -5005,19 +5005,19 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" t="s">
         <v>341</v>
       </c>
-      <c r="C114" t="s">
-        <v>342</v>
-      </c>
       <c r="D114" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="E114" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F114" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -5025,19 +5025,19 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C115" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D115" t="s">
-        <v>673</v>
+        <v>785</v>
       </c>
       <c r="E115" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F115" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -5045,19 +5045,19 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>344</v>
+        <v>786</v>
       </c>
       <c r="C116" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D116" t="s">
-        <v>346</v>
+        <v>787</v>
       </c>
       <c r="E116" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F116" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -5065,19 +5065,19 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>786</v>
+      </c>
+      <c r="C117" t="s">
         <v>344</v>
       </c>
-      <c r="C117" t="s">
-        <v>347</v>
-      </c>
       <c r="D117" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E117" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F117" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -5085,19 +5085,19 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>344</v>
+        <v>786</v>
       </c>
       <c r="C118" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D118" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="E118" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F118" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -5105,19 +5105,19 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>344</v>
+        <v>786</v>
       </c>
       <c r="C119" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D119" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="E119" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F119" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -5125,19 +5125,19 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>344</v>
+        <v>786</v>
       </c>
       <c r="C120" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D120" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="E120" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F120" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -5145,19 +5145,19 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C121" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D121" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E121" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F121" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -5165,19 +5165,19 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C122" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D122" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="E122" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F122" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -5185,19 +5185,19 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
+        <v>349</v>
+      </c>
+      <c r="C123" t="s">
         <v>352</v>
       </c>
-      <c r="C123" t="s">
-        <v>355</v>
-      </c>
       <c r="D123" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="E123" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F123" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -5205,19 +5205,19 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D124" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="E124" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F124" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,19 +5225,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C125" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D125" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="E125" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F125" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,19 +5245,19 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C126" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D126" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="E126" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F126" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,19 +5265,19 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C127" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D127" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E127" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F127" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,19 +5285,19 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D128" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="E128" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F128" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -5305,19 +5305,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C129" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D129" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E129" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F129" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -5325,19 +5325,19 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
+        <v>360</v>
+      </c>
+      <c r="C130" t="s">
         <v>363</v>
       </c>
-      <c r="C130" t="s">
-        <v>366</v>
-      </c>
       <c r="D130" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E130" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F130" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,19 +5345,19 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D131" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E131" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F131" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -5365,19 +5365,19 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D132" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E132" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -5385,19 +5385,19 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
+        <v>369</v>
+      </c>
+      <c r="C133" t="s">
+        <v>370</v>
+      </c>
+      <c r="D133" t="s">
         <v>372</v>
       </c>
-      <c r="C133" t="s">
-        <v>373</v>
-      </c>
-      <c r="D133" t="s">
-        <v>375</v>
-      </c>
       <c r="E133" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -5405,19 +5405,19 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D134" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E134" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="F134" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,19 +5425,19 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C135" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D135" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E135" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F135" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,19 +5445,19 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D136" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E136" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F136" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,19 +5465,19 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C137" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D137" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E137" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F137" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -5485,19 +5485,19 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
+        <v>380</v>
+      </c>
+      <c r="C138" t="s">
         <v>383</v>
       </c>
-      <c r="C138" t="s">
-        <v>386</v>
-      </c>
       <c r="D138" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E138" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F138" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -5505,19 +5505,19 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C139" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D139" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E139" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F139" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,19 +5525,19 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C140" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E140" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F140" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,19 +5545,19 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
+        <v>387</v>
+      </c>
+      <c r="C141" t="s">
         <v>390</v>
       </c>
-      <c r="C141" t="s">
-        <v>393</v>
-      </c>
       <c r="D141" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E141" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F141" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -5565,19 +5565,19 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C142" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D142" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E142" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F142" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -5585,19 +5585,19 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D143" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E143" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F143" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -5605,19 +5605,19 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C144" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D144" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E144" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F144" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -5625,19 +5625,19 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C145" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D145" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E145" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F145" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -5645,19 +5645,19 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C146" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D146" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E146" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F146" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,19 +5665,19 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C147" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D147" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E147" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F147" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,19 +5685,19 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C148" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D148" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="E148" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F148" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -5705,19 +5705,19 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
+        <v>405</v>
+      </c>
+      <c r="C149" t="s">
+        <v>407</v>
+      </c>
+      <c r="D149" t="s">
         <v>408</v>
       </c>
-      <c r="C149" t="s">
-        <v>410</v>
-      </c>
-      <c r="D149" t="s">
-        <v>411</v>
-      </c>
       <c r="E149" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F149" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,19 +5725,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
+        <v>409</v>
+      </c>
+      <c r="C150" t="s">
+        <v>410</v>
+      </c>
+      <c r="D150" t="s">
         <v>412</v>
       </c>
-      <c r="C150" t="s">
-        <v>413</v>
-      </c>
-      <c r="D150" t="s">
-        <v>415</v>
-      </c>
       <c r="E150" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F150" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,19 +5745,19 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C151" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D151" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="E151" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F151" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,19 +5765,19 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C152" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D152" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E152" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F152" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,19 +5785,19 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C153" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D153" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="E153" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F153" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,19 +5805,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C154" t="s">
+        <v>417</v>
+      </c>
+      <c r="D154" t="s">
         <v>420</v>
       </c>
-      <c r="D154" t="s">
-        <v>423</v>
-      </c>
       <c r="E154" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="F154" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,19 +5825,19 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C155" t="s">
+        <v>418</v>
+      </c>
+      <c r="D155" t="s">
         <v>421</v>
       </c>
-      <c r="D155" t="s">
-        <v>424</v>
-      </c>
       <c r="E155" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,19 +5845,19 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
+        <v>416</v>
+      </c>
+      <c r="C156" t="s">
         <v>419</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>422</v>
       </c>
-      <c r="D156" t="s">
-        <v>425</v>
-      </c>
       <c r="E156" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F156" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,19 +5865,19 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C157" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D157" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E157" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="F157" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,19 +5885,19 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
+        <v>423</v>
+      </c>
+      <c r="C158" t="s">
         <v>426</v>
       </c>
-      <c r="C158" t="s">
-        <v>429</v>
-      </c>
       <c r="D158" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E158" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F158" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,19 +5905,19 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C159" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D159" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E159" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,19 +5925,19 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C160" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D160" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E160" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="F160" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,19 +5945,19 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C161" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D161" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="E161" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F161" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,19 +5965,19 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C162" t="s">
-        <v>495</v>
+        <v>788</v>
       </c>
       <c r="D162" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="E162" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F162" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,19 +5985,19 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C163" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D163" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="E163" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F163" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,19 +6005,19 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C164" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D164" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="E164" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F164" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -6025,19 +6025,19 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" t="s">
         <v>494</v>
       </c>
-      <c r="C165" t="s">
-        <v>499</v>
-      </c>
       <c r="D165" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="E165" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F165" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,19 +6045,19 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C166" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D166" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E166" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F166" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,19 +6065,19 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C167" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D167" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="E167" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F167" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,19 +6085,19 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C168" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D168" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="E168" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F168" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,19 +6105,19 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D169" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E169" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F169" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,19 +6125,19 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C170" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D170" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="E170" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F170" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,19 +6145,19 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C171" t="s">
-        <v>511</v>
+        <v>789</v>
       </c>
       <c r="D171" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="E171" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F171" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,19 +6165,19 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="C172" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="D172" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="E172" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F172" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,19 +6185,19 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C173" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="D173" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="E173" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F173" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,19 +6205,19 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="C174" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="D174" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="E174" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F174" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,19 +6225,19 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="C175" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D175" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="E175" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F175" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,19 +6245,19 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C176" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="D176" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="E176" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="F176" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,19 +6265,19 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="C177" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D177" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="E177" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F177" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,19 +6285,19 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C178" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D178" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="E178" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="F178" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -6305,19 +6305,19 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C179" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D179" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="E179" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F179" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,19 +6325,19 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C180" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="D180" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="E180" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F180" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,19 +6345,19 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C181" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D181" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E181" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F181" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,19 +6365,19 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C182" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="D182" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="E182" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F182" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,19 +6385,19 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C183" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D183" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="E183" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F183" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -6405,19 +6405,19 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C184" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D184" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E184" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F184" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,19 +6425,19 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C185" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D185" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="E185" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F185" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -6445,19 +6445,19 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C186" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D186" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="E186" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F186" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -6465,19 +6465,19 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
+        <v>541</v>
+      </c>
+      <c r="C187" t="s">
         <v>547</v>
       </c>
-      <c r="C187" t="s">
-        <v>553</v>
-      </c>
       <c r="D187" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="E187" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F187" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,19 +6485,19 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="C188" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="D188" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="E188" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F188" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,19 +6505,19 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C189" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D189" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="E189" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F189" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,19 +6525,19 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C190" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D190" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="E190" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F190" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,19 +6545,19 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C191" t="s">
-        <v>558</v>
+        <v>790</v>
       </c>
       <c r="D191" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E191" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F191" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,19 +6565,19 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C192" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="D192" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="E192" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F192" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,19 +6585,19 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C193" t="s">
-        <v>561</v>
+        <v>791</v>
       </c>
       <c r="D193" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="E193" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F193" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,19 +6605,19 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
+        <v>549</v>
+      </c>
+      <c r="C194" t="s">
         <v>555</v>
       </c>
-      <c r="C194" t="s">
-        <v>563</v>
-      </c>
       <c r="D194" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="E194" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F194" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -6625,19 +6625,19 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C195" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="D195" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="E195" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F195" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -6645,19 +6645,19 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C196" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="D196" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="E196" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F196" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -6665,19 +6665,19 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C197" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D197" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="E197" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F197" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,19 +6685,19 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C198" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D198" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="E198" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F198" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -6705,19 +6705,19 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C199" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D199" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E199" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F199" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,19 +6725,19 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C200" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D200" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="E200" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="F200" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -6745,19 +6745,19 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C201" t="s">
-        <v>683</v>
+        <v>672</v>
       </c>
       <c r="D201" t="s">
-        <v>787</v>
+        <v>771</v>
       </c>
       <c r="E201" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="F201" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -6765,19 +6765,19 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C202" t="s">
-        <v>684</v>
+        <v>673</v>
       </c>
       <c r="D202" t="s">
-        <v>782</v>
+        <v>766</v>
       </c>
       <c r="E202" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="F202" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -6785,19 +6785,19 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C203" t="s">
-        <v>685</v>
+        <v>674</v>
       </c>
       <c r="D203" t="s">
-        <v>686</v>
+        <v>675</v>
       </c>
       <c r="E203" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="F203" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -6805,19 +6805,19 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="C204" t="s">
-        <v>687</v>
+        <v>792</v>
       </c>
       <c r="D204" t="s">
-        <v>783</v>
+        <v>767</v>
       </c>
       <c r="E204" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="F204" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,19 +6825,19 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
       <c r="C205" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D205" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="E205" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="F205" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,19 +6845,19 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>689</v>
+        <v>793</v>
       </c>
       <c r="C206" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D206" t="s">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="E206" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="F206" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -6865,19 +6865,19 @@
         <v>208</v>
       </c>
       <c r="B207" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="C207" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D207" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="E207" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="F207" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,19 +6885,19 @@
         <v>209</v>
       </c>
       <c r="B208" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="C208" t="s">
-        <v>697</v>
+        <v>794</v>
       </c>
       <c r="D208" t="s">
-        <v>789</v>
+        <v>773</v>
       </c>
       <c r="E208" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="F208" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -6908,16 +6908,16 @@
         <v>3</v>
       </c>
       <c r="C209" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="D209" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="E209" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="F209" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -6928,16 +6928,16 @@
         <v>3</v>
       </c>
       <c r="C210" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="D210" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="E210" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="F210" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -6948,16 +6948,16 @@
         <v>3</v>
       </c>
       <c r="C211" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D211" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E211" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="F211" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -6968,16 +6968,16 @@
         <v>3</v>
       </c>
       <c r="C212" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="D212" t="s">
-        <v>790</v>
+        <v>774</v>
       </c>
       <c r="E212" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="F212" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -6988,16 +6988,16 @@
         <v>3</v>
       </c>
       <c r="C213" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="D213" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="E213" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="F213" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -7008,16 +7008,16 @@
         <v>3</v>
       </c>
       <c r="C214" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="D214" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="E214" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="F214" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -7028,16 +7028,16 @@
         <v>3</v>
       </c>
       <c r="C215" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="D215" t="s">
-        <v>791</v>
+        <v>775</v>
       </c>
       <c r="E215" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="F215" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -7048,16 +7048,16 @@
         <v>3</v>
       </c>
       <c r="C216" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="D216" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
       <c r="E216" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="F216" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -7068,16 +7068,16 @@
         <v>3</v>
       </c>
       <c r="C217" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="D217" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="E217" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="F217" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,16 +7088,16 @@
         <v>3</v>
       </c>
       <c r="C218" t="s">
-        <v>714</v>
+        <v>795</v>
       </c>
       <c r="D218" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E218" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="F218" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -7108,16 +7108,16 @@
         <v>3</v>
       </c>
       <c r="C219" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="D219" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="E219" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="F219" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -7128,16 +7128,16 @@
         <v>3</v>
       </c>
       <c r="C220" t="s">
-        <v>781</v>
+        <v>765</v>
       </c>
       <c r="D220" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="E220" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
       <c r="F220" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -7148,16 +7148,16 @@
         <v>3</v>
       </c>
       <c r="C221" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="D221" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
       <c r="E221" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="F221" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -7168,16 +7168,16 @@
         <v>3</v>
       </c>
       <c r="C222" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="D222" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
       <c r="E222" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="F222" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -7188,16 +7188,16 @@
         <v>3</v>
       </c>
       <c r="C223" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D223" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="E223" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="F223" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,19 +7205,19 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="C224" t="s">
-        <v>747</v>
+        <v>796</v>
       </c>
       <c r="D224" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
       <c r="E224" t="s">
-        <v>769</v>
+        <v>753</v>
       </c>
       <c r="F224" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,19 +7225,19 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="C225" t="s">
-        <v>748</v>
+        <v>732</v>
       </c>
       <c r="D225" t="s">
-        <v>784</v>
+        <v>768</v>
       </c>
       <c r="E225" t="s">
-        <v>770</v>
+        <v>754</v>
       </c>
       <c r="F225" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -7245,19 +7245,19 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>749</v>
+        <v>733</v>
       </c>
       <c r="C226" t="s">
-        <v>750</v>
+        <v>734</v>
       </c>
       <c r="D226" t="s">
-        <v>751</v>
+        <v>735</v>
       </c>
       <c r="E226" t="s">
-        <v>771</v>
+        <v>755</v>
       </c>
       <c r="F226" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -7265,19 +7265,19 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="C227" t="s">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="D227" t="s">
-        <v>753</v>
+        <v>737</v>
       </c>
       <c r="E227" t="s">
-        <v>772</v>
+        <v>756</v>
       </c>
       <c r="F227" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -7285,19 +7285,19 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>755</v>
+        <v>739</v>
       </c>
       <c r="C228" t="s">
-        <v>756</v>
+        <v>740</v>
       </c>
       <c r="D228" t="s">
+        <v>741</v>
+      </c>
+      <c r="E228" t="s">
         <v>757</v>
       </c>
-      <c r="E228" t="s">
-        <v>773</v>
-      </c>
       <c r="F228" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -7305,19 +7305,19 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
+        <v>742</v>
+      </c>
+      <c r="C229" t="s">
+        <v>743</v>
+      </c>
+      <c r="D229" t="s">
+        <v>744</v>
+      </c>
+      <c r="E229" t="s">
         <v>758</v>
       </c>
-      <c r="C229" t="s">
-        <v>759</v>
-      </c>
-      <c r="D229" t="s">
-        <v>760</v>
-      </c>
-      <c r="E229" t="s">
-        <v>774</v>
-      </c>
       <c r="F229" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -7325,19 +7325,19 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>761</v>
+        <v>745</v>
       </c>
       <c r="C230" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
       <c r="D230" t="s">
-        <v>763</v>
+        <v>747</v>
       </c>
       <c r="E230" t="s">
-        <v>775</v>
+        <v>759</v>
       </c>
       <c r="F230" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -7345,19 +7345,19 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C231" t="s">
-        <v>765</v>
+        <v>749</v>
       </c>
       <c r="D231" t="s">
-        <v>785</v>
+        <v>769</v>
       </c>
       <c r="E231" t="s">
-        <v>776</v>
+        <v>760</v>
       </c>
       <c r="F231" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -7365,19 +7365,19 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>764</v>
+        <v>748</v>
       </c>
       <c r="C232" t="s">
-        <v>766</v>
+        <v>750</v>
       </c>
       <c r="D232" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
       <c r="E232" t="s">
-        <v>777</v>
+        <v>761</v>
       </c>
       <c r="F232" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -7385,19 +7385,19 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>767</v>
+        <v>751</v>
       </c>
       <c r="C233" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="D233" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
       <c r="E233" t="s">
-        <v>778</v>
+        <v>762</v>
       </c>
       <c r="F233" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -7405,19 +7405,19 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
+        <v>748</v>
+      </c>
+      <c r="C234" t="s">
+        <v>763</v>
+      </c>
+      <c r="D234" t="s">
+        <v>770</v>
+      </c>
+      <c r="E234" t="s">
         <v>764</v>
       </c>
-      <c r="C234" t="s">
-        <v>779</v>
-      </c>
-      <c r="D234" t="s">
-        <v>786</v>
-      </c>
-      <c r="E234" t="s">
-        <v>780</v>
-      </c>
       <c r="F234" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
